--- a/scrapping/amazon_reviews.xlsx
+++ b/scrapping/amazon_reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Don't waste your money!</t>
+          <t>Dumb game.</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,17 +476,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11 April 2024</t>
+          <t>11 February 2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Phone does not always ring for incoming calls.Camera does not work at times....must turn phone completely off and back on to get camera to function.Have had this phone gone over at ATT.  Many years of dealing with Amazon and first problem encountered.  Problem not with Amazon but with seller!</t>
+          <t>Hard to figure out, pointless, no fun.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Camera']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -494,27 +494,21 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NOT UNLOCKED</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03 April 2024</t>
+          <t>24 December 2022</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This phone is NOT unlocked as advertised… now I have to return it as I can’t transfer my service over. Disappointed beyond words at the lie.</t>
+          <t>The game was received from seller Kay Kay Enterprises. The paper packaging itself was concerning as it couldn't have protected the game from dents and scratches. When I opened the paper packaging I was surprised to see some random magnetic tiles game included in the packaging. Its presence would make sense in a couple of minutes.The game box was without shrink wrap and slightly sticky to touch. That set off the alarm bells. Upon opening the game box, I realised that someone - either the seller or a previous buyer - had taken out components. So there was no rulebook, only 2 out of the 4 player boards, and dozens of missing game pieces. Absolutely unusable and very disappointing.I've placed a return order.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Scratchresistance']</t>
+          <t>['Fun', 'Quality']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -524,81 +518,75 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Empty box</t>
+          <t>It’s ok</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21 February 2024</t>
+          <t>24 September 2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>So I got the so call phone today but when I open it was just a charger no phone . So don’t order</t>
+          <t>I ends up returning this after much hesitation. The game pieces are high quality and it feels like a study board. Rules are a bit complicated and I found myself having to review the rules several times to understand what the point was.y husband and I are avid gamers and play games like this one often. I just couldn’t get into this one.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not worth the price</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10 January 2024</t>
+          <t>20 November 2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I paid $100 less than the original price.  I had to go through Amazon to save some money. The phone was described as Excellent condition. But no it wasn’t. The outside body looks great but the charging port was damaged to the point where you can only use the charger cable on one side. You can clearly see stain in it. They sent me a very cheap old fashioned charging cable with a usb charging box. Which you can get both for as low as $10. The package was also very cheap. Not satisfied!</t>
+          <t>Buen juego, llegó muy golpeado..</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Came locked, though advertised as unlocked</t>
+          <t>Damaged box</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04 January 2024</t>
+          <t>15 July 2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unable to use with my current carrier.</t>
+          <t>Game box cam slightly damaged, making it difficult to remove and replace the top when opening.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun', 'Quality']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -608,53 +596,53 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dirty quick</t>
+          <t>It's the original Azul with a new paint job</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28 December 2023</t>
+          <t>06 January 2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Terrible outer color that gets black quickly</t>
+          <t>Azul is a fun game for 2 to 4 players.  It plays fast and is simple to understand the directions.  The object of the game is to get the highest score and you get that score by laying down multiples of a design.  There's more to the game but that's the skeleton of the rules.  You don't need the original Azul in order to play this version.The game is made of a cardboard game board for each player and several circles of cardboard to hold the plastic tiles that are the main pieces of the game.  In this version of the game the plastic pieces are designed to look like chocolate bon bons.  The art is accurate but not as delicious look as the real thing.  That's my main problem with this version of the game.  The original Azul has bright lively tiles and this one has muted colored tiles.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Already had a carrier on it</t>
+          <t>Prefer the original</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19 December 2023</t>
+          <t>13 March 2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Could not activate it on my service because it already had a carrier lock on it. After saying it was unlocked.</t>
+          <t>Azul is great whatever it looks like, but as fun as a 'chocolate' version sounds it isn't quite as visually striking -  neither the game itself and especially the box design.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -664,81 +652,81 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CARGADOR MALOGRADO</t>
+          <t>A fun edition of the basic Azul game.  Perfect for gifting.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11 April 2024</t>
+          <t>02 March 2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>El celular llegó en buenas condiciones, pero el cargador no funciona, llegó malogrado 👎🏻</t>
+          <t>The same game as the base Azul.  Perfect gift for chocolate lovers.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Decent</t>
+          <t>A worthwhile update to the Azul rules with high-quality tiles.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23 March 2024</t>
+          <t>14 April 2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Then phone came with some camera dents on it as well a scratch about 3 inches long on the screen. Battery also dies rather quickly. I did also notice the camera takes a few seconds to adjust for selfie and back camera. For the sake of needing the phone already I’m accepting it as is and  not returning it. Although I know I paid about $20 or so for fast shipping the phone was still delivered late. The phone colors is pretty.</t>
+          <t>While this is a "sequel" to Azul, it's really more of an update - it includes the base Azul game, but with some new (optional) rules that shake up how it works. Combine all that with some chocolate-themed tiles that are just as good as the original game's tiles (if not better), and you've got a winner.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Camera']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Few scratches</t>
+          <t>Tastiest Azul</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>03 April 2024</t>
+          <t>28 March 2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>I’m the phone works great however there are several noticeable scratches across the screen</t>
+          <t>This is the easiest Azul I've played. Even kids catch on quickly. It has different layers to increase the difficulty but with young kids we don't need advanced yet. Engaging game that teaches strategy.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Scratchresistance', 'Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -748,25 +736,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Almost everything</t>
+          <t>Great game</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15 March 2024</t>
+          <t>23 March 2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Everything came and it works all fine and dandy.  Right charger and all.  It just didn’t come with the correct color on 1 of the 2 iPhones I ordered.  Came white instead of blue</t>
+          <t>The game for a whole family to enjoy. Nice tiles, interesting game</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -776,11 +764,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>the phone appears like new</t>
+          <t>Love this game best price was on Amazon</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -789,12 +777,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>It's very good, only that it came with a super cheap charger, which didn't work as a challenge, everything was fine with the phone.</t>
+          <t>I’ve been looking for this game and the best price that I could find it was on Amazon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['Quality', 'Condition', 'Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -804,25 +792,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phone 10/10</t>
+          <t>Chocolate!</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10 March 2024</t>
+          <t>22 February 2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>the phone is 10/10 but I was expecting the original iPhone cable but instead I received a generic cable, for the other hand battery life is 100% so I'm happy with that</t>
+          <t>Great game, I like that you can change your strategy depending on which tiles you pick up. Fairly simple to teach or learn, and I love the chocolate theme!</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -832,25 +820,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alright</t>
+          <t>Excelente juego familiar</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08 March 2024</t>
+          <t>07 February 2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The phone is good, but it would’ve been nice if they sent the correct charger</t>
+          <t>Muy buen juego, es perfecto para jugarlo en familia. Tiene el nivel adecuado de dificultad para poder ser estratégico, sin que se vuelva complejo.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -860,25 +848,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>🩷🩷</t>
+          <t>Don't play while hungry ;)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06 January 2024</t>
+          <t>22 January 2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Everything was as new besides a few small deep scratches in the screen.</t>
+          <t>If you love Azul it's a no brainer, very beautiful end elegant.the pieces looks like real chocolate to the point we got actually hungry while playing.It's a standard size box but you can pack it all in the bag you get for the tiles and you are good to go!</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Condition', 'Scratchresistance']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -888,25 +876,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Took some patience</t>
+          <t>Love it</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01 January 2024</t>
+          <t>21 January 2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>the phone looks great. The only issue was A LOT of back and forth with my carrier to get it to work. I do feel this was mainly on my carrier, but still an unpleasant experience that resulted in me having NO SERVICE for a few days while the eSIM import kept failing.I was able to eventually get it to work after spending probably a total of 4-5 hours on it. Ultimately, probably not worth the money I saved</t>
+          <t>Haven’t played the original, but this themed variant is amazing. The tile quality is similar to a domino, and the board is sturdy and well designed. Gameplay mechanics allow this game to be deep but played quickly (half a hour), which works out well if you have trouble carving out time. Great fun, highly recommend.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -916,7 +904,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Worth the pirchade</t>
+          <t>Fun game!</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -924,17 +912,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11 April 2024</t>
+          <t>28 December 2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Phone came in goi condition, fully working and 100% battery. Cheaper option to the brand new phone.</t>
+          <t>My husband purchased this game for our family.  It was fun and went pretty fast once we learned the rules.  I wish it was a game for more than 4 players</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -944,7 +932,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Excellent !!!</t>
+          <t>Beautiful design and a fun game</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -952,17 +940,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08 April 2024</t>
+          <t>21 December 2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Battery 100.I ordered a second phone and it came perfect too</t>
+          <t>Quick to learn once you play it once (we’ve only played two player so far). Now we can’t stop playing it! Really beautiful design and colors. The chocolate version is fun because it’s like playing with chocolate candies. The more we play the more we learn that there is a lot of strategizing involved. Also different options to play but so far we have only tried one version. I recommend!</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -972,7 +960,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Everything is great!</t>
+          <t>The classic game reimagined as a chocolate lover's dream</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -980,17 +968,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08 April 2024</t>
+          <t>14 December 2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arrived with the correct cable and in great physical condition. Battery is at 100%, it’s still so new that I can get Apple care! Very happy and def worth the price.</t>
+          <t>If you liked the original game, or you are a chocolate lover looking for a new, light strategic game, or both then this game is for you.My wife absolutely *loves* the original game, and we gave copies to many family members.She saw this newer version, and she had to have it.It is great fun and is essentially the same strategy repackaged as a chocolatier's dream.We played it five times in a row.We love this game, and we think you will too.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1000,7 +988,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Great phone</t>
+          <t>Excellent Alternate version</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1008,17 +996,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06 April 2024</t>
+          <t>09 December 2023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>It was practically brand new! No scratches and works great definitely would buy again and recommend</t>
+          <t>Same game, different colors scheme but also a few optional additional rules when you flip the coasters</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1028,7 +1016,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>So gorgeous</t>
+          <t>Got it early</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1036,17 +1024,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>05 April 2024</t>
+          <t>04 December 2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10/10 no blemishes whatsoever</t>
+          <t>Arrived in good condition</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1056,7 +1044,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Better than expected</t>
+          <t>Beautiful Edition of Azul</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1064,17 +1052,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30 March 2024</t>
+          <t>27 November 2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The condition of the IPhone is excellent.It has no scratches and the battery life is good.  I was esceptic to purchase an open box iPhone because I was not sure what to expect.  The description about it was accurate. Also arrived on time. They deserve 5 stars.</t>
+          <t>My first Azul game I played was Summer Pavilion, and I have collected all of the versions of the game  since then. This was the only edition I didn't have, but thanks to Black Friday sales, I finally have it! This is an absolute beautiful edition and I honestly like it far more than the tile edition of the game. The game play is the same as the tile edition, it's just this one is chocolatey!Learning Azul is a lot to take in for someone who has never played, but it's rather easy to catch on once the game starts and everyone can see how it's actually played.Overall, I would 10/10 recommend this game, or any of the other Azul games, for any board game lover!</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun', 'Speed', 'Quality']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1084,7 +1072,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Works great</t>
+          <t>Love playing this game</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1092,17 +1080,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>30 March 2024</t>
+          <t>16 May 2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Works like new.  No problems, will like to get another one!</t>
+          <t>This a great game to play with the family.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1112,7 +1100,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Excellent phone</t>
+          <t>Strategic but simple to learn</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1120,17 +1108,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>25 March 2024</t>
+          <t>06 April 2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Make calls every were</t>
+          <t>While the original Azul is more visually striking this is perfect for someone that doesn't own the original. Buy the lucite overlays they are certain helpful keeping the pieces in place.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1140,7 +1128,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>So far so good!</t>
+          <t>Very fun, unique game</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1148,17 +1136,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21 March 2024</t>
+          <t>19 February 2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Beautiful phone! For being used. I purchased it in the excellent condition and it’s really nice. I got it for my bf so for the battery and other specs, I’ll have to come back and update the review. But out of the box, it’s really nice. It even came with a screen protector and a charger.</t>
+          <t>While exactly the same as the regular Azul, this version of the tile laying game tickled my fancy with its candy theme, as well as adding a new module which is interesting. Great production value and really fun as a thinky puzzle game filler in between meatier games!</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1168,7 +1156,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Son muy bonitos</t>
+          <t>Love all the Azul games!</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1176,17 +1164,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20 March 2024</t>
+          <t>17 February 2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Muy buenos gracias</t>
+          <t>Pretty classic Azul with a chocolate twist. Gifted to my daughter who enjoys the game but didn’t own Azul yet.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1196,7 +1184,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Great condition iPhone!</t>
+          <t>Love this game</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1204,17 +1192,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20 March 2024</t>
+          <t>16 February 2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>I had expected some scratches or slight cosmetic damages. I also expected the battery health to be less than 90%.  This phone looks brand new!  Haven't found the first blemish or cosmetic issue and the battery health is 100%!  This was a GREAT experience!</t>
+          <t>We have been playing the original Azul for years.  It is a game enjoyed by the entire family, from 4 yrs to adult and every age in between. Over the years we have added each of the variations, and have enjoyed them all.  The manipulative game peices are so very nice to handle which always adds to the enjoyment of the game.When I saw the Chocolatier version I bought it instantly without realizing it was the original game with new colors.  I like these colors better and we are actually just fine having both versions on our shelf.  This allows eight of us to play at one time rather than only four (two separate games).</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1224,7 +1212,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO GREAT</t>
+          <t>A fun, strategic game</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1232,17 +1220,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20 March 2024</t>
+          <t>06 February 2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>best phone ever, lasts me all day, charges well, came with a case and screen protector and a charger, ships fast, came with 100% battery capacity and is just overall great, best purchase yet!!</t>
+          <t>When I saw that the original game is now in a limited edition master chocolatier version, I couldn’t wait to get it!  It’s such a beautiful set, and a lot of fun to play with friends and family.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1252,7 +1240,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10/10 so happy</t>
+          <t>Fun for the whole family!</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1260,17 +1248,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19 March 2024</t>
+          <t>02 January 2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Everything came as described, I am so glad that Amazon offered payments. Easy and friendly.</t>
+          <t>I bought this for my kids for Christmas and we all love it!  A lot of rules to remember for the first couple of plays, but after you get the hang of it, it’s super fun and addictive!  I got the Master Chocolatier edition and it’s beautifully made with great quality.  Which I’m glad about because I have never before spent that much on a board game, but I’d do it again for this one.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1280,7 +1268,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Insane</t>
+          <t>Beautiful!</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1288,17 +1276,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19 March 2024</t>
+          <t>30 December 2022</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>I have only ever had bad experiences buying refurbished phones but I was pleasantly surprised, you could tell me the phone was new and I wouldn’t think twice. It even came with a charger and screen protector. To say that Im satisfied would be an understatement.</t>
+          <t>My husband bought me this game for Christmas and I absolutely love it. I only recently learned to play, but this game is so much fun! This edition is just beautiful, the pieces are lovely, the board is sturdy. Highly recommended!</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Camera']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1308,7 +1296,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phone came brandnew</t>
+          <t>Azul Master Chocolatier Limited Edition Board Game</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1316,17 +1304,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19 March 2024</t>
+          <t>26 December 2022</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Soo nice I love the upgrade</t>
+          <t>We have all the Azul games, but not this one, can't wait to play it.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1334,27 +1322,21 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Great condition</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>5</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18 March 2024</t>
+          <t>05 December 2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Excellent condition</t>
+          <t>Tiene pocas diferencias con el azul base pero si eres fan de azul, si o si debes tener esta edición</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1362,27 +1344,21 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Excellent phone</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15 March 2024</t>
+          <t>04 November 2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Phone was exactly as described in excellent condition.  Battery life at 100%.  Just don’t understand why these sellers would send a usb-a cable when they should know it uses a usb-c cable.</t>
+          <t>Si eres amante de "Azul" no puede faltar en tu ludoteca. A pesar de no aportar mucho al original, aporta lo suficiente para darle un giro, pero por estética no te lo puedes perder.Hermoso juego. Muy recomendable.Por el envío sin problema.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1390,27 +1366,21 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Super recommended!</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>5</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>09 March 2024</t>
+          <t>21 October 2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Amazing customer service and I really love my iPhone 15!!The incorrect charger was shipped with my phone however the issue was resolved quickly.I  saved a good amount on a refurbished phone. I highly recommend this seller</t>
+          <t>Tenía rato con ganas de jugar este juego, no hay queja alguna con el envio, todo llego bien protegido y sellado. Ahora toca jugar un poco.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1418,27 +1388,21 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>iPhone 15 unlocked 256</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>07 March 2024</t>
+          <t>11 October 2023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>El iPhone está bueno el problema que tiene es que la tecla de subir el volumen no funciona por lo tanto tampoco puedes hacer una captura de pantalla. Todo lo demás es impecable!!! En mi país cuesta más del doble de lo que pagué.</t>
+          <t>Divertido, se puede poner muy estratégico, siempre que tus contrincantes jueguen bien.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1446,27 +1410,21 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Like new iPhone 15</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>5</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>05 March 2024</t>
+          <t>19 August 2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The iPhone 15 I received came in perfect condition. The battery life is 100 percent. I’m so happy with my new phone. Thank you</t>
+          <t>Un juego sencillo de razonamiento sin ser tedioso, el material es de buena calidad; el mío llegó con una pequeña abolladura en la esquina de la caja que marcó los tableros, fue un detalle por parte de paquetería, pero no afecta a la hora de jugar</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1474,27 +1432,21 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Great purchase</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>5</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>29 February 2024</t>
+          <t>29 July 2023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Phone arrived in mint condition at a discount to a new one. Very happy</t>
+          <t>Es un excelente juego , es facil de aprender las reglas . Muy bueno para pasar un rato en familia, lo malo es que es solo para 4 jugadores y en lo personal me gustan mas los juegos que son para 8 . Pero este vale la pena completamente , lo conoci por el juego de azul original , lo compre por ser una edicion limitada de chocolatez</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1502,27 +1454,21 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Very satisfied</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>5</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>28 February 2024</t>
+          <t>06 May 2023</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>The phone is genuinely like new. The most important part, the battery health is 100%.  I would prefered a lower price, but value for money was particularly good.</t>
+          <t>Componentes de calidad Premium, si tienen el Azul clásico quizá deban omitir esta versión ya que solo es una skin del mismo, buenísimo para empezar a jugar juegos de mesa, fácil de aprender y partidas rápidas.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1530,27 +1476,21 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Wow</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>5</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>27 February 2024</t>
+          <t>08 April 2023</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Everything was exactly as described in my personal opinion the phone was even in better shape than described the phone looked immaculate brand new nothing wrong with it I will definitely be coming back for two or three more iPhones from this sellerThank you for making our daughter the happiest person in the world</t>
+          <t>Tiene unas reglas muy simples, y no esperaba gran cosa, pero me sorprendió. Se enseña muy fácil a cualquier persona. La preparación es rapidísima, la duración de cada partida es la justa, y ofrece mucha rejugabilidad.  Las fichas, los tableros, la interacción que hay.  Es un gran juego.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Speed']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1558,27 +1498,21 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>They totally fixed any errors</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>5</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>26 February 2024</t>
+          <t>27 March 2023</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>There is something very special about this phone now I will tell you the phone cord is different. You will never be able to use the old phone cords but this phone has something so special. I cannot describe what it is.</t>
+          <t>Its the same as the normal Azul but with a chocolate skin, which tbh its a lot more engaging to me than just tiles, loved the colors and the design.I just hope it would have had like a little chocolate box or something to place the pieces instead of just using the box cover, like the glass tower or the garden tower.Even if you are new to Azul give it a try its a very fun game with lots of strategy.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1586,27 +1520,21 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Great phone</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>25 February 2024</t>
+          <t>10 March 2023</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>No problems whatsoever came in like it was brand new and everything thank you sm!</t>
+          <t>Es un juego sencillo de aprender pero que tiene cierta estrategia para competir con tus compañeros de juego. Los materiales son de excelente calidad y estéticamente es muy bonito en mesa, dan ganas de comerse los "chocolates". Las losetas volteables le dan un plus que le da variación al primer azul.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1614,27 +1542,21 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>5</v>
-      </c>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>24 February 2024</t>
+          <t>01 March 2023</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Great service works well</t>
+          <t>Lo compré porque un artículo mencionaba que es buen juego para jugar de a dos, y la verdad es que si lo es! Mi esposa y yo disfrutamos mucho jugandolo los fines de semana. Se aprende rapido despues de dos o tres partidas. Las fichas de resina se sienten muy bien al tacto y son muy bonitas. Mi esposa ama los chocolates asi que preferí esta versión a la tradicional de azulejos.Tambien pienso que es un juego que puede ser muy portable. Se juega normalmente con unos tableros de carton para cada jugador donde van haciendo sus patrones, pero si le sacas fotocopia, las doblas y las metes en la bolsa de las fichas, y metes todo lo demás en la bolsita, esta super facil de llevartelo de viaje y jugar en cualquier parte (con una superficie plana).Lo recomiendo y lo volveria a comprar.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Fun']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1642,534 +1564,24 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Like New!!</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>5</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>18 February 2024</t>
+          <t>01 March 2023</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>I’ve had this phone for almost a month, and I haven’t had any issues with it.</t>
+          <t>The chocolate tiles look gorgeous. Chocolatier Azul doesn't bring anything new to the game. It's not an extension. There's a new variant to play which I haven't tried but it's otherwise Azul with different colours is a treat to look at and just as good to play.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Condition']</t>
+          <t>['Fun', 'Quality']</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Worth the money</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>17 February 2024</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Really great phone. I was worried that the battery health might be low or that the phone might be sort of damged, however in came in perfect condition and 100 percent battery health. I had to switch carriers though, as my current one didnt support the esim. The only thing Im bummed abt is the charging cable is to short and its a usc to usb-A which is dumb. I wanted a fast charger.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Great purchase, solid iPhone 15 !  Very pleased.</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>15 February 2024</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Ship time and like new condition.  Business and personal use, thank you !</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>100 % perfecto</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>14 February 2024</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Llego perfecto. 🤗</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>['Quality']</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>The delivery was actually one day early</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>5</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>07 February 2024</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Liked phone</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>iphone 15</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>5</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>02 February 2024</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>it’s been a week since i’ve had my new iphone 15😍! literally was brand new. no scratches or anything &amp; no carrier on it as well.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>A brand new phone</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>31 January 2024</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Let me start by saying I’m not one to write reviews but I was skeptical about getting a phone off of Amazon but let me say it’s a brand new phone it came in perfect condition! I upgraded from a iPhone 11 so it did have a physical SIM card so when trying to activate my new one I did have to go to my carrier so they could do an Esim since you can’t use a physical sim with this phone and it only cost me $10 for them to do it. Phone was unlocked as stated and came with a charger and adapter I am very pleased with my purchase</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>['Condition', 'Scratchresistance']</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>iPhone 15</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>5</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>26 January 2024</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>I absolutely love my phone it’s so pink and it’s Matte so you can’t see that it’s dirty but I love ittttttt you thinking about buying from them you should I got the unlockedPhone</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>It came Perfectly</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>5</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>21 January 2024</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>No complaints. Got it for my teenage daughter. She LOVES it! No cracks no scratches looks brand new. Highly recommend.</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>nice product looks like brand new.</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>5</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>13 January 2024</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>nothing at all all good.</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Excelente producto, grata experiencia.</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>12 January 2024</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Recibí un teléfono tal cual la descripción del vendedor, en excelentes condiciones.</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Like Brand new</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>5</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>09 January 2024</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Excellent cosmetics condition and exactly as what was described on Amanzon. Good Seller!</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>This is the best phone ever !</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>04 January 2024</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>My daughter love this phone , the phone is just work great and it was the Best thing  I could ever do to buy this product!!</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>['Quality']</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Like new</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>02 January 2024</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>The phone has no scratches, also came with a screen protector.</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>['Camera']</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Excellent product</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>16 December 2023</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>This is virtually brand new! No scratches and 100% battery life</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Great Christmas present</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>5</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>15 December 2023</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Item looks good as described. I’m satisfied</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Genial, un pequeño golpe, pero nada de que preocuparse</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>5</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>07 December 2023</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Muy buenas condiciones, tuve un inconveniente y el vendedor me respondió muy rápido</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>IPhone 15</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>5</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>01 December 2023</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>This was a great transaction thus far . Phone was exactly as described. Came with incorrect charger but I was okay with that , then I received an email stating the phone was shipped out with incorrect charger and two were on the way already. That’s customer service right there ! How they caught it , IDK ! Phone was in excellent condition with a100% battery life ! $$$ well spent . Kept me out of the VerHIson store !</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>It so cool!</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>28 November 2023</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Love the color</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>['Condition']</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
         <v>1</v>
       </c>
     </row>

--- a/scrapping/amazon_reviews.xlsx
+++ b/scrapping/amazon_reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dumb game.</t>
+          <t>Dead on arrival, huge software bloat</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11 February 2023</t>
+          <t>29 March 2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hard to figure out, pointless, no fun.</t>
+          <t>The unit I got didn't power on at all except when plugged in, making two of the three modes useless. In addition to that, to update firmware and change settings, you need to install Armoury Crate which is ~2.9G. This is ridiculous. For the price, it is essentially a well-built light mouse with a good design, but unfortunately the QA and user experience doesn't hit the mark.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,21 +494,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>constantly disconnects</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24 December 2022</t>
+          <t>11 March 2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The game was received from seller Kay Kay Enterprises. The paper packaging itself was concerning as it couldn't have protected the game from dents and scratches. When I opened the paper packaging I was surprised to see some random magnetic tiles game included in the packaging. Its presence would make sense in a couple of minutes.The game box was without shrink wrap and slightly sticky to touch. That set off the alarm bells. Upon opening the game box, I realised that someone - either the seller or a previous buyer - had taken out components. So there was no rulebook, only 2 out of the 4 player boards, and dozens of missing game pieces. Absolutely unusable and very disappointing.I've placed a return order.</t>
+          <t>I've tried this wired and wireless and the mouse disconnects randomly on both windows 10 and 11.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Fun', 'Quality']</t>
+          <t>['Adhesion']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -518,75 +524,81 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>It’s ok</t>
+          <t>Bad QC, side buttons stick</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24 September 2023</t>
+          <t>10 January 2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I ends up returning this after much hesitation. The game pieces are high quality and it feels like a study board. Rules are a bit complicated and I found myself having to review the rules several times to understand what the point was.y husband and I are avid gamers and play games like this one often. I just couldn’t get into this one.</t>
+          <t>Day 2 of using the mouse and side buttons already started sticking.Quite disappointing since it makes the side buttons quite annoying to use.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Updating did not work and sensor stopped working</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20 November 2023</t>
+          <t>09 December 2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Buen juego, llegó muy golpeado..</t>
+          <t>I plugged this mouse into my computer and the only thing that worked is left click,right click, and scroll wheel. Moving the mouse around did nothing. I guess the sensor broke. I tried updating the mouse in armoury, following the instructions but the mouse still doesn't want to update. Its crazy I have to try and troubleshoot something as simple as a mouse.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Damaged box</t>
+          <t>broke like a 10 dollar mouse</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15 July 2023</t>
+          <t>19 November 2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Game box cam slightly damaged, making it difficult to remove and replace the top when opening.</t>
+          <t>what a piece of garbage... waste all that money.. return window closed 4 days ago, JUST MY LUCK.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Fun', 'Quality']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -596,53 +608,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>It's the original Azul with a new paint job</t>
+          <t>double click issue</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06 January 2024</t>
+          <t>08 November 2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Azul is a fun game for 2 to 4 players.  It plays fast and is simple to understand the directions.  The object of the game is to get the highest score and you get that score by laying down multiples of a design.  There's more to the game but that's the skeleton of the rules.  You don't need the original Azul in order to play this version.The game is made of a cardboard game board for each player and several circles of cardboard to hold the plastic tiles that are the main pieces of the game.  In this version of the game the plastic pieces are designed to look like chocolate bon bons.  The art is accurate but not as delicious look as the real thing.  That's my main problem with this version of the game.  The original Azul has bright lively tiles and this one has muted colored tiles.</t>
+          <t>The media could not be loaded.
+I bought this mouse a week ago and after only 7 days of using it it gave me a double click problem, how can this be possible? on a high-end mouse</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Prefer the original</t>
+          <t>Double clicking within 2 months</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13 March 2023</t>
+          <t>02 October 2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Azul is great whatever it looks like, but as fun as a 'chocolate' version sounds it isn't quite as visually striking -  neither the game itself and especially the box design.</t>
+          <t>within 2 months it already has a massive double clicking issue. not ok</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -652,165 +665,159 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A fun edition of the basic Azul game.  Perfect for gifting.</t>
+          <t>Overpriced</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>02 March 2023</t>
+          <t>25 September 2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The same game as the base Azul.  Perfect gift for chocolate lovers.</t>
+          <t>Mouse is... ehhhh. Clicking isn't really all that, the material and how it feels isn't really anything different than a default mouse that you would get with a desktop for free. The default detection for the laser is so low that at first my standard mousepad couldn't even pick it up and I had to manually change it with the software. It has terrible traction, I tried it both on my mouse pad because it felt like it had some drag or something on it so I put it on just clean flat wood desk and you could hear the bottom scraping. Overall it is just a really meh mouse, feels and operates like its a super cheap mouse, but wait its 150 dollars! Yeah... no. Huge waste of money and it was a huge relief to go back to my G502 Hero logitech mouse. I highly do not recommend buying this mouse, especially if you are an avid gamer and even more so if you like to grind out aim labs, because out of all the different mice that I've tried with my aim lab grind, this one is ironically the worst! Stay away from this mouse unless they miraculously half the price.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A worthwhile update to the Azul rules with high-quality tiles.</t>
+          <t>Let down</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14 April 2024</t>
+          <t>15 September 2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>While this is a "sequel" to Azul, it's really more of an update - it includes the base Azul game, but with some new (optional) rules that shake up how it works. Combine all that with some chocolate-themed tiles that are just as good as the original game's tiles (if not better), and you've got a winner.</t>
+          <t>Was looking for a new gaming mouse after my Razer Viper Ultimate started to die on me after ~2 years.Saw this and was intrigued and decided to give it a shot.I was initially not very impressed with the quality and the way the mouse felt, especially with the price tag attached to it.  Was also not very impressed with the software or the monthly fee they want in order for you to use it on top of buying their product.  Ultimately, the biggest disappointment is that the mouse frequently turns off and back on, which is not good when trying to play online games where 2 -3 seconds of not moving = losing.  I know its an issue with the mouse because my other gaming mice do not have the issue and the lights definitely go out on the mouse every time it happens.Hate to say it because I have a lot of other ASUS products that have been great, but this mouse is definitely not cut from the same cloth and I cannot recommend it.  Maybe if it was like 20 bucks and you had no other choice.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tastiest Azul</t>
+          <t>Asus - great PCs, terrible peripherals</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28 March 2024</t>
+          <t>30 June 2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>This is the easiest Azul I've played. Even kids catch on quickly. It has different layers to increase the difficulty but with young kids we don't need advanced yet. Engaging game that teaches strategy.</t>
+          <t>Never had so many issues with such a common item. The mouse constantly and randomly disconnects itself and usually reconnects (after about 10 seconds). This happens regardless of what USB port is used and regardless of factory or updated firmware. Just skip this one...</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Great game</t>
+          <t>Double Clicking Issue Within 2 Weeks</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>23 March 2024</t>
+          <t>16 June 2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The game for a whole family to enjoy. Nice tiles, interesting game</t>
+          <t>Within two weeks of owning this mouse both the left and right clicks randomly double click.Tested it on multiple computers and for the price you pay for this mouse this shouldn't even be a possibility after 2 weeks.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Love this game best price was on Amazon</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10 March 2024</t>
+          <t>17 July 2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>I’ve been looking for this game and the best price that I could find it was on Amazon</t>
+          <t>Mouse itself is great but the armory crate software needed to make it work is absolute garbage. It constantly resets my settings, updates fail continuously, and often it doesn't even detect my mouse is connected (wired or wireless mode). If the software works half the time I am happy.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Quality', 'Value', 'Appearance', 'Adhesion', 'Comfort', 'Buttons', 'Clicking']</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chocolate!</t>
+          <t>Not for Folks with Arthritis or Carpal Tunnel</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22 February 2024</t>
+          <t>10 January 2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Great game, I like that you can change your strategy depending on which tiles you pick up. Fairly simple to teach or learn, and I love the chocolate theme!</t>
+          <t>The mouse tracks very well and has excellent battery life however it's small size and simple design forces the user to adopt a hand position that is not conducive to wrist comfort. Additionally, the buttons have a high degree of resistance that quickly tires the back of the hand with extended use. I much prefer my old Gladius II but for the fact that is corded.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -820,53 +827,53 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Excelente juego familiar</t>
+          <t>Not worth the money</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07 February 2024</t>
+          <t>07 January 2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Muy buen juego, es perfecto para jugarlo en familia. Tiene el nivel adecuado de dificultad para poder ser estratégico, sin que se vuelva complejo.</t>
+          <t>Bought this product, and returned it after a week. The sticker on the bottom started peeling and rubbing against my mousepad, after only a week of light use. This mouse is way overpriced for the build quality, there are other similar options from different manufacturers with better quality for the same price. Do not recommend</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Don't play while hungry ;)</t>
+          <t>Concerning Build Quality</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22 January 2024</t>
+          <t>16 November 2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>If you love Azul it's a no brainer, very beautiful end elegant.the pieces looks like real chocolate to the point we got actually hungry while playing.It's a standard size box but you can pack it all in the bag you get for the tiles and you are good to go!</t>
+          <t>I like it quite a bit. It has both bluetooth and 2.4g wireless, decent coating, and good battery life. Nothing to really complain about, except the fact that the middle mouse button/scroll wheel no longer registers a click. I use this mouse for work a lot and middle click is something I used daily. Really disappointed.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -876,53 +883,53 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Love it</t>
+          <t>Double clicking problem 1 month in</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21 January 2024</t>
+          <t>06 November 2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Haven’t played the original, but this themed variant is amazing. The tile quality is similar to a domino, and the board is sturdy and well designed. Gameplay mechanics allow this game to be deep but played quickly (half a hour), which works out well if you have trouble carving out time. Great fun, highly recommend.</t>
+          <t>The switches are cheap as crap and started double clicking and not holding a click.  Trying to hold ADS and it goes in and out of aiming.  It will double up firing both barrels off my Caldwell shotty when I only shot once.The grip tape is cool, but it the adhesive starts to come off and is sticky on the very edges and is annoying.Battery life is decent.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fun game!</t>
+          <t>Great mouse marred with awful sofware</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28 December 2023</t>
+          <t>26 October 2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>My husband purchased this game for our family.  It was fun and went pretty fast once we learned the rules.  I wish it was a game for more than 4 players</t>
+          <t>Returned because of aggressive armory crate prompts. The aim lab part is a little gimicky but whatever, mouse is really nice I enjoyed using it. After disabling Asus armory crate services and removing all of its vicious little files I noticed that the "update checker" aka nag ware prompt was loaded with the mouse driver under C:\windows, so this mouse is not driverless and ASUS again destroys a product with software no one asked for. Its bad enough I have to disable the armory crate prompt every bios update for my motherboard.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Value', 'Adhesion', 'Clicking', 'Buttons', 'Comfort', 'Weight', 'Appearance']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -932,25 +939,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Beautiful design and a fun game</t>
+          <t>Great mouse for daily use but not so much gaming</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21 December 2023</t>
+          <t>14 April 2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quick to learn once you play it once (we’ve only played two player so far). Now we can’t stop playing it! Really beautiful design and colors. The chocolate version is fun because it’s like playing with chocolate candies. The more we play the more we learn that there is a lot of strategizing involved. Also different options to play but so far we have only tried one version. I recommend!</t>
+          <t>I love the weight of this mouse and the RGB is a nice surprise given I would expect a wireless mouse at this weight and price point would not have it. The censor is amazing, and the battery life is phenomenalThat said, I'd have prefered Asus's push fit switch sockets over the RGB, even if it did add more weight, and the actuation on the mouse buttons is less than desirable for tapfire in games, which i can only attribute to whatever switches they're using. Asus Armoury Crate is also a nightmare and I had to backup and reinstall windows to get it to install/update firmware for this mouse, which was incredibly annoying.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Weight']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -960,25 +967,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>The classic game reimagined as a chocolate lover's dream</t>
+          <t>Quality mouse, armoury crate kills it</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14 December 2023</t>
+          <t>02 January 2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>If you liked the original game, or you are a chocolate lover looking for a new, light strategic game, or both then this game is for you.My wife absolutely *loves* the original game, and we gave copies to many family members.She saw this newer version, and she had to have it.It is great fun and is essentially the same strategy repackaged as a chocolatier's dream.We played it five times in a row.We love this game, and we think you will too.</t>
+          <t>This is my first mouse upgrade in a long time. I cannot compare it to the DAV3 or Gpro. I will say that it looks and feel really nice. I personally like the little RGB wheel. The mouse has this coarse coating that gives it a better grip. The front side button is a little hard to reach comfortably (I'd say I have normal sized hands).I've also got the Scope II keyboard, so I use armoury crate to control the rgb, updates, and customization. Armoury crate is as awful as you've probably heard and causes computer stability issues. I got this for $70, so it was still worth the money. At $100+, there are similar quality options without the stability issues.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -988,48 +995,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Excellent Alternate version</t>
+          <t>eh it’s ok</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09 December 2023</t>
+          <t>21 August 2023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Same game, different colors scheme but also a few optional additional rules when you flip the coasters</t>
+          <t>It’s a nice mouse love it but one thing bothers me a lot which is that the switch for either usb, bluetooth is on the bottom so it will accidentally switch by it self as i’m gaming and then the mouse won’t move till i fix it..</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Got it early</t>
+          <t>Good Mice, sadly mine came a little defective, i'm returning this one and getting a new one</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>04 December 2023</t>
+          <t>21 June 2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Arrived in good condition</t>
+          <t>Honestly its performance is just clean, it shines and its lightweight its pretty amazing, the only thing that i found wrong is that it came defective on my end, which had the problem of not charging, so im returning this one and getting a new one again, worth for the price in my opinion, for more advise if you want a gaming mice for Valorant or either game this one works just fine (Valorant Ascendant 3 player here!)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1044,25 +1051,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Beautiful Edition of Azul</t>
+          <t>Great mouse, poor build quality</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>27 November 2023</t>
+          <t>19 April 2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>My first Azul game I played was Summer Pavilion, and I have collected all of the versions of the game  since then. This was the only edition I didn't have, but thanks to Black Friday sales, I finally have it! This is an absolute beautiful edition and I honestly like it far more than the tile edition of the game. The game play is the same as the tile edition, it's just this one is chocolatey!Learning Azul is a lot to take in for someone who has never played, but it's rather easy to catch on once the game starts and everyone can see how it's actually played.Overall, I would 10/10 recommend this game, or any of the other Azul games, for any board game lover!</t>
+          <t>I like a lot of things about this mouse. The scroll wheel is just perfect in how notchy it is and how easy it is to press down. The button clicks a nice and crispy. Most of all I really like the shape of this mouse, but it will depend on your hand size. I think if you find something like a Logitech GPro Superlight a little small this would be a great mouse for you, as it has a similar shape yet is longer. The mouse feet out of the box are very  good and feel nice and smooth. It also has pretty great battery life, I feel like I hardly ever have to charge it.Although ASUS Armory Crate software is not that great overall, it was pretty easy to get the latest firmware on here and after that you don't really need the software anymore.The coating is... odd. It reminds me of a PBT keycap, and doesn't really provide as good of a grip as many other mice out there. However, it does come with some grip tape so this isn't really an issue. I use it without grip tape fine but it can be a little slippery. Will just depend on your hands and how moist they get.My unit has some poor build quality. After 2 weeks the mouse wheel has started having some side to side play in it. The side buttons have a small amount of pre travel to them, and they have developed a sproingy sound when you tap them. Not what I consider acceptable. I will be returning it for a replacement and hopefully that one will be better.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Fun', 'Speed', 'Quality']</t>
+          <t>['Quality', 'Clicking', 'Buttons', 'Weight', 'Appearance', 'Adhesion', 'Value']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1072,25 +1079,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Love playing this game</t>
+          <t>The sensor</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16 May 2023</t>
+          <t>26 March 2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>This a great game to play with the family.</t>
+          <t>When I use this mouse and pick up my mouse and kinda microflick it rarely does register. While my superlight always does, its really good other then that but thats a big part of my aiming technique.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1100,25 +1107,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Strategic but simple to learn</t>
+          <t>Not for smaller hands/claw</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06 April 2023</t>
+          <t>24 March 2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>While the original Azul is more visually striking this is perfect for someone that doesn't own the original. Buy the lucite overlays they are certain helpful keeping the pieces in place.</t>
+          <t>This mouse is longer than the Logitech g pro wireless and pretty narrow. The side buttons require you to extend your thumb just to reach them. Maybe more appropriate for people with longer hands and those that favor Palm grip. Still trying to get used to it. In comparison the razor viper ultimate is also a smaller mouse.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Buttons', 'Value']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1128,25 +1135,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Very fun, unique game</t>
+          <t>Mouse good software bad</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19 February 2023</t>
+          <t>15 April 2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>While exactly the same as the regular Azul, this version of the tile laying game tickled my fancy with its candy theme, as well as adding a new module which is interesting. Great production value and really fun as a thinky puzzle game filler in between meatier games!</t>
+          <t>Honestly I find the mouse very comfortable for my larger than average hands, it looks great too, but I would reccomend setting the rgb and uninstalling the software, infact be very comfortable when installing armory crate because it will install a bunch of bloat with it</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1156,25 +1163,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Love all the Azul games!</t>
+          <t>As Listed</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17 February 2023</t>
+          <t>29 March 2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pretty classic Azul with a chocolate twist. Gifted to my daughter who enjoys the game but didn’t own Azul yet.</t>
+          <t>As Listed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Clicking', 'Value']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1184,53 +1191,53 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Love this game</t>
+          <t>Great mouse, decent durability</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16 February 2023</t>
+          <t>04 March 2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>We have been playing the original Azul for years.  It is a game enjoyed by the entire family, from 4 yrs to adult and every age in between. Over the years we have added each of the variations, and have enjoyed them all.  The manipulative game peices are so very nice to handle which always adds to the enjoyment of the game.When I saw the Chocolatier version I bought it instantly without realizing it was the original game with new colors.  I like these colors better and we are actually just fine having both versions on our shelf.  This allows eight of us to play at one time rather than only four (two separate games).</t>
+          <t>It has been 11 months since I purchased this mouse. At about 2 months of use, the middle scroll wheel started to have more than normal amount of wiggle room on the left and right of the scroll wheel, allowing it to tilt left to right more than usual. That was very annoying and hard to get used to but once I got used to it, it has not bothered me at all since. At about 5 months of use, the glue/sticky material on the back of the grip tape. Started to slide around under the grip tape eventually having the grip tape no longer able to stay attached or stuck in place on the mouse. The feel of the grip tape is really nice and it worked great other than the glue/sticky back that needs to be replaced with some sort of different backing. At 11 months of use, the battery no longer lasts as long as it used to last using the wireless dongle. Lasting only about 20 hours now, instead of the 40-50 hours it lasted out of the box. All in all, the mouse it great. But those are the few issues that I've had over time with it. Probably wouldn't spend this much on this specific mouse again though.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A fun, strategic game</t>
+          <t>Curioso</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06 February 2023</t>
+          <t>09 February 2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>When I saw that the original game is now in a limited edition master chocolatier version, I couldn’t wait to get it!  It’s such a beautiful set, and a lot of fun to play with friends and family.</t>
+          <t>Después de usarlo un tiempo la experiencia es buena pero por momentos detecto un doble click medio sospechoso aunque no es tan frecuente como para tomarlo en cuenta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1240,25 +1247,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fun for the whole family!</t>
+          <t>Nice mouse for gaming</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>02 January 2023</t>
+          <t>13 December 2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>I bought this for my kids for Christmas and we all love it!  A lot of rules to remember for the first couple of plays, but after you get the hang of it, it’s super fun and addictive!  I got the Master Chocolatier edition and it’s beautifully made with great quality.  Which I’m glad about because I have never before spent that much on a board game, but I’d do it again for this one.</t>
+          <t>Niche mouse for fps games - I really like this mouse, comfortable, light, good control. I have several others that are Razer brand and this feels better than all of them.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1268,53 +1275,53 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Beautiful!</t>
+          <t>Great mouse but 2 issues</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30 December 2022</t>
+          <t>27 September 2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>My husband bought me this game for Christmas and I absolutely love it. I only recently learned to play, but this game is so much fun! This edition is just beautiful, the pieces are lovely, the board is sturdy. Highly recommended!</t>
+          <t>Great mouse light and great even weight feel but the clicks are stiff and the program needed to adjust dpi and other settings was a pain to install. very complicated and confusing for some reason you have to install asus's whole operating aura dashboard.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Weight']</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Azul Master Chocolatier Limited Edition Board Game</t>
+          <t>Feather Light (ASUS ROG Harpe Ace Aim Lab Edition Gaming Mouse)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>26 December 2022</t>
+          <t>28 July 2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>We have all the Azul games, but not this one, can't wait to play it.</t>
+          <t>I purchased this mouse due to the fact that it incorporates the new SpeedNova wireless technology and includes the new ROG Omni Receiver. A wireless technology that will be compatible with new ASUS ROG devices released after 2022.Granted this mouse is advertised as being light weight, but I prefer a mouse with more substance. The mat finish is a plus, however just how long with the finish last on the top left and right buttons? Hence, the reason for the included decals for an anti-slip grip experience.For the most part,  the mouse is responsive. Unfortunately there are times when right clicking via 2.4GHz connectivity, it is non-responsive. Even when using the USB extender and I continue to experience the problem. If you review some of the videos for this mouse,  it shows the dongle directly in front of the mouse during game play for a reliable connection.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1322,21 +1329,27 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fantastic Mouse, Questionable QC</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>05 December 2023</t>
+          <t>22 July 2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tiene pocas diferencias con el azul base pero si eres fan de azul, si o si debes tener esta edición</t>
+          <t>I purchased this mouse on sale for Prime Day. My first copy had a lot of side to side play on the scroll wheel and the feel was pretty rattley and bad. My 2nd copy is perfect and I'm amazed by how good the quality feels. Rock solid, very lightweight but doesnt feel hollow. Performance is top tier, and battery life is also fantastic.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1344,21 +1357,27 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Very good.</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>04 November 2023</t>
+          <t>25 May 2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Si eres amante de "Azul" no puede faltar en tu ludoteca. A pesar de no aportar mucho al original, aporta lo suficiente para darle un giro, pero por estética no te lo puedes perder.Hermoso juego. Muy recomendable.Por el envío sin problema.</t>
+          <t>It’s a very good mouse, but I still prefer the Logitech pro wireless super light. 4/5 for me.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1366,21 +1385,27 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>needs side grips</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21 October 2023</t>
+          <t>21 April 2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tenía rato con ganas de jugar este juego, no hay queja alguna con el envio, todo llego bien protegido y sellado. Ahora toca jugar un poco.</t>
+          <t>great mouse and all just wish they made gripy side strips u could put on</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Clicking']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1392,17 +1417,17 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11 October 2023</t>
+          <t>12 February 2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Divertido, se puede poner muy estratégico, siempre que tus contrincantes jueguen bien.</t>
+          <t>Es un poco más grande de lo que esperaba, pero de ahí en fuera, todo bien</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Fun']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1410,178 +1435,1634 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The Speednova dongle is docked inside the mouse</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19 August 2023</t>
+          <t>27 March 2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Un juego sencillo de razonamiento sin ser tedioso, el material es de buena calidad; el mío llegó con una pequeña abolladura en la esquina de la caja que marcó los tableros, fue un detalle por parte de paquetería, pero no afecta a la hora de jugar</t>
+          <t>If you are like me &amp; cannot find the dongle, it is attached to the mouse itself on the underside. So far, I'm really enjoying it.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>I absolutely love this thing!</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>17 March 2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>I really had doubts about how much difference a mouse could make to my gaming experience but...This thing makes all the difference in the world for me. Your milage may vary. I love how light it is, and the responsiveness is out of this world. Add the aim lab calibration and you have a serious weapon in your hands. I did add some after aftermarket skates right after I got it just to see what would happen. The new skates are better (more slippery) than the stock ones but, just barely. So, out of the box this thing is just a beast. I did opt to use the included grip tape but just on the sides and I like the feel. Again, your personal milage may vary.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>['Quality', 'Value', 'Clicking', 'Weight', 'Buttons', 'Appearance', 'Adhesion']</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>17 March 2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>['Quality']</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>29 July 2023</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Es un excelente juego , es facil de aprender las reglas . Muy bueno para pasar un rato en familia, lo malo es que es solo para 4 jugadores y en lo personal me gustan mas los juegos que son para 8 . Pero este vale la pena completamente , lo conoci por el juego de azul original , lo compre por ser una edicion limitada de chocolatez</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>['Easeofuse']</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>06 May 2023</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Componentes de calidad Premium, si tienen el Azul clásico quizá deban omitir esta versión ya que solo es una skin del mismo, buenísimo para empezar a jugar juegos de mesa, fácil de aprender y partidas rápidas.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>On par with Logitech Superlight</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>11 March 2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>It's wireless and lightweight, best combo. Performs just like the Logitech Superlight which is also great. The only thing I think this is better than the Superlight is the longer durability of the scroll wheel. Otherwise this mouse is great if you want wireless, lightweight, and good quality material build.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>['Quality', 'Value', 'Comfort', 'Weight', 'Clicking']</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Best Mouse I Ever Purchased!</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10 March 2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Loved this mouse &amp; managed to get it on sale. Totally worth it!</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Great mouse</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>02 March 2024</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>As a user of the finalmouse ultralight, Logitech G Pro Superlight +, I really enjoy using this mouse. The mouse has a great feel to it, firm yet has some give. Not sure if worth the price, but I have absolutely 0 complaints and will use this over the others for a little while.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Best mouse!</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>27 February 2024</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>The media could not be loaded.
+Love how light it is , fits just amazing, fast and very responsive, price is high but worth it!</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Increíblemente ligero</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>22 February 2024</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Estaba buscando un cambio a mi viejo Razer Mamba, el cual perdió la tapita para almacenar el USB receiver y quería algo más ligero.Bueno este ACE es el ratón más ligero que jamás he usado. Es lo primero que nota todo el mundo.Solo tiene una luz RGB que va cambiando de tono y la batería dura mucho. Más que mi Mamba. Lo único malo hasta ahora es lo mucho que se ensucian los pads en las esquinas abajo, hay que limpiarlos regularmente para q no evite que el ratón se mueva con facilidad.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['Adhesion', 'Comfort', 'Quality', 'Weight', 'Value', 'Appearance']</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>I'm A Twitch Streamer!!!!</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>15 February 2024</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>I Use It In My Setup I've Used It As Part Of My New Setup It's An Amazing Mouse!!!!!</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Great buy</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>05 February 2024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Got this for my gamer son and he loves it. Good quality and no issues</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Harpe Ace is a winner!</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>01 February 2024</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Video Player is loading.Play VideoPlayMuteCurrent Time 0:00/Duration 0:00Loaded: 0%Stream Type LIVESeek to live, currently behind liveLIVERemaining Time -0:00 1xPlayback RateChaptersChaptersDescriptionsdescriptions off, selectedCaptionscaptions and subtitles off, selectedAudio TrackFullscreenThis is a modal window.
+ASUS knocked it out the park with this release! The mouse is extremely responsive and despite its low weight is built extremely well. There is literally 0 flexing or creaking. I also appreciate the presentation and all the extras you get in the box. Glad I got it and would recommend it!</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>works well with big hands. and its very light</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23 January 2024</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>very light gaming mouse that works well with azoth keyboard. im happy with it.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['Comfort']</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>I was surprised.</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22 January 2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>The first reaction i had was that it is so Light. I thought that it may have taken some form of rechargeable batteries and started looking for the compartment. Given its internal battery it has a great life span. My experience so far it would seem to be 30-40hrs on a charge. With the supplied USB-c cable connecting the mouse to your Computer, in my case my Gaming Laptop. Has a Fast charge speed. Easily track the battery life with the Asus ROG Armory Crate software. The onboard RGB light in the scroll wheel is adjustable with before mention Armory Crate software. I've chosen to turn the RGB off to help maximize battery life. The mouse has great versatility being able to switch between Bluetooth, Cabled USB-c, and Wireless with the adjoined Wireless dongle tucked away under the mouse. The glide of the attitude is smooth and not undesirable. Supplied with additional skates, to use as replacements. The second set seem to be slightly thicker than the already installed skates. Mouse operation is intuitive as a mouse should be the buttons are solid and responsive, with pleasing "Clicks and Clacks".  I am very Pleased with this mouse for my Gaming laptop.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['Weight', 'Clicking', 'Appearance', 'Comfort', 'Quality', 'Buttons', 'Adhesion']</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Nice Mouse</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>18 January 2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Nice feel, very light. I'm using it via USB dongle and it seems to work very well. I like the light under the scroll wheel and it seems to have a long battery life, even with the scroll wheel light.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>['Quality']</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>08 April 2023</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Tiene unas reglas muy simples, y no esperaba gran cosa, pero me sorprendió. Se enseña muy fácil a cualquier persona. La preparación es rapidísima, la duración de cada partida es la justa, y ofrece mucha rejugabilidad.  Las fichas, los tableros, la interacción que hay.  Es un gran juego.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>['Speed']</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>27 March 2023</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Its the same as the normal Azul but with a chocolate skin, which tbh its a lot more engaging to me than just tiles, loved the colors and the design.I just hope it would have had like a little chocolate box or something to place the pieces instead of just using the box cover, like the glass tower or the garden tower.Even if you are new to Azul give it a try its a very fun game with lots of strategy.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>['Fun']</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>10 March 2023</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Es un juego sencillo de aprender pero que tiene cierta estrategia para competir con tus compañeros de juego. Los materiales son de excelente calidad y estéticamente es muy bonito en mesa, dan ganas de comerse los "chocolates". Las losetas volteables le dan un plus que le da variación al primer azul.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>['Fun']</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>01 March 2023</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Lo compré porque un artículo mencionaba que es buen juego para jugar de a dos, y la verdad es que si lo es! Mi esposa y yo disfrutamos mucho jugandolo los fines de semana. Se aprende rapido despues de dos o tres partidas. Las fichas de resina se sienten muy bien al tacto y son muy bonitas. Mi esposa ama los chocolates asi que preferí esta versión a la tradicional de azulejos.Tambien pienso que es un juego que puede ser muy portable. Se juega normalmente con unos tableros de carton para cada jugador donde van haciendo sus patrones, pero si le sacas fotocopia, las doblas y las metes en la bolsa de las fichas, y metes todo lo demás en la bolsita, esta super facil de llevartelo de viaje y jugar en cualquier parte (con una superficie plana).Lo recomiendo y lo volveria a comprar.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>['Fun']</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>01 March 2023</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>The chocolate tiles look gorgeous. Chocolatier Azul doesn't bring anything new to the game. It's not an extension. There's a new variant to play which I haven't tried but it's otherwise Azul with different colours is a treat to look at and just as good to play.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>['Fun', 'Quality']</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Uno mouse extraordinario</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>14 January 2024</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>He usado muchos mouse gaming y tengo entre mis principales el Logitech Gpro X superligth, Razer deathadder V2 y se sumó este, es muy ligero y preciso combinado con su mousepad ROG Aimlab. Un punto en contra es su software Armory la primera vez se desvinculó pero reinstalándolo lo resolvió así que no se asusten. Por lo demás todo bien lo recomiendo.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>After 6 different mice, I've found the perfect one</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>10 January 2024</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>I've owned many mice: the most recent are the G Pro X Superlight, and the final mouse ultralight. The battery life on the G Pro X superlight was ok, but it wasn't great. It also didn't support bluetooth, which is nice to have as I use two different computer regularly. Also the X is charged with micro-usb instead of usb-c, which should be a legal crime in 2024. The Final Mouse was a disaster on every front other than materials used. Every razer I've had was too heavy, and others just dont have the features.In summary, The Asus ROG Harpe is my daily driver because:- Battery life is great- Battery indicator when low is really useful- very light and ergonomic- usb-c charging- grips that come with it are dope- built in storage for the USB dongle.- Mouse and side button clicks have very little play, solid actuation.This is the mouse to get. Get it.Update:I've used this every day for the past ~4 months, and I like it even more than first purchased. My G ProX sits on my desk unused and looks like a dinosaur. Battery indicator on the Asus has saved me several times in competitive online play (my GProX would just die without warning). It charges really quickly, and saves me from having a dedicated micro-usb sitting on my table to charge my GProX.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>gaming</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>27 December 2023</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Amazig for gaming</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Great mouse</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>25 December 2023</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>I love that the mouse in addition to RF has Bluetooth, I leave the RF at my set up and use Bluetooth in class. The shape of the mouse is similar the razer viper I enjoy it. The clicks are nice too not much travel. I just wish the glides were bigger</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>I absolutely LOVE this mouse</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>22 December 2023</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>I got it because it was hyped up a lot and I’ve had my GPro super light since I got a pc about 3 years ago now, I didn’t think a mouse could get anymore comfortable and then I discovered they can! lolIt’s a subtle difference but way more comfortable and lighter.If you’re contemplating trying this out from a super light, I don’t think you’ll be disappointed at all.The side buttons are in a better position it feels like, it’s like a whole 10g lighter than super light , the scroll wheel is a bit more shallow but feels good, the clicks feel crisp. It comes with grippy tape but I don’t feel like I even need it the mouse itself has grips in the design.I took as many comparison photos as I could to help anyone get a better idea of shape difference. (Not a whole lot)Hope this will help!</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['Weight']</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Overall great mouse</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>29 November 2023</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Coating is meh. Clicks are spamable and sensor performs well. Overall the shape is really good and comfortable that it could even compete with a GPX</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Great Mouse For The Price</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>08 November 2023</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>The world of mice is so competitive and breaking into that market is quite the challenge and ASUS has done it with a mouse most didn’t expect. If you like symmetrical mice this is a great pick for you.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['Weight', 'Comfort', 'Clicking']</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>One of the best mice I have owned.</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>23 October 2023</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>I love everything about this mouse, from how it feels, to how well it works in games, the quality. This is probably the nicest mouse I have ever owned.This review is for the 90 day warranty extension program.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Better than the G Pro X Superlight</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>15 October 2023</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Beats my previous favorite, the G Pro X Superlight. Lighter and grippier even without the grip tapes.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Extremely Solid Mouse</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>12 October 2023</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>The texture of the material is a bit strange compared to normal plastic, but you get used to it quickly. The battery life is golden, I charge about once a week and am a heavy user. The biggest win is the latency - this mouse with a wireless connection has a faster response time than my wired mouse! Rtings provides full detailed reviews of the capabilities, and this mouse rates as one of the fastest responding mice that is available. I use the adhesive grips, and the mouse is easy to hold onto and use for hours.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['Appearance', 'Clicking', 'Quality', 'Adhesion', 'Weight', 'Value']</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Improves accuracy</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>09 October 2023</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Very good quality mouse. Comes with grips in the box. Software is needed for getting the most out of the mouse, but most do these days from all companies. I’ve enjoyed this mouse a lot for the last few months. It’s made my accuracy better and getting it during a sale was icing on the cake. Highly recommended.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Awesome look, feel, and build!</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>25 September 2023</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Very friendly shape for my palm/claw grip, super light, great build quality. The texture was not slippery at all for me. The scroll wheel feels great, with very distinct steps. The white and blue colorway is really nice for my setup. I did switch the skates for some Corepads to make it perfect, although now I do hear a slight rattle from very vigorous shaking (only after I changed the skates, I don't know if it's related but wasn't there before). I'm upgrading from a Logitech G305 (hated the double-clicks), so I wanted to stay away from Logitech, including the Superlight. I tried Razer Viper V2 Pro (hand cramps after long sessions of pincer claw), and Razer Deathadder V3 Pro (ergo shape too sluggish for me), before settling for this mouse (hopefully the mechanical switches won't double click). Highly recommend!</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['Quality', 'Clicking']</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Amazed</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>23 September 2023</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Previous razer user and this is now literally the best mouse for me. wonderful wireless experience and light as a feather.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>W Mouse, W Amazon!!</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>21 September 2023</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>I love everything about this mouse! Very well made, the skates are alright could probably use an upgrade there. I came from a Pulsefire Haste, and this mouse is much much better in terms of tracking despite being wireless. I ordered another mouse from another brand and had trouble with the 2.4ghz disconnecting randomly, sent it back and ordered this one and have had 0 issues! Just buy it already! Oh, and I bought open box from Amazon Warehouse and it was a 5/5 experience. Came with all accessories and mouse was brand new looking. No scuffs on the skates even but they had been installed. Battery life lasts me about 3-4 days with RGB on 10%.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['Quality', 'Value']</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>31 August 2023</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Works great easy to maneuver</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Don’t need a trap for this mouse!</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>24 August 2023</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Perfect weight and size. The Omni dongle to connect with my rog 96% keyboard works flawless! So fast and precise. I’ve retired all my other mice thanks to this one.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Almost invisible in my hand</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>15 August 2023</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>This is the best gaming mouse I have ever owned. The responsiveness is great and the light weight has actually caused me some over control in some of my favorite games. It took a little getting used to but I'm really happy now that I can really get the fine control other mice have failed to give me. Now if I can get my reaction time to be faster, I might win a few more games!</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['Weight']</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Super light</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>19 July 2023</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>First thing you notice taking it out of the box is how light it is. Very generic shape, I like the grip tape that comes in the box, it gives it a rubbery feeling. Would recommend for anyone interested in a super light wireless mouse, it has Bluetooth too.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Amazing mouse</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>19 July 2023</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Picked this up for $85 on Prime day and it really is an excellent mouse for the price if they can keep it in the $85-99 price range. I think its the best FPS/shooter mouse on the market atm. It is a pleasure to use. The included grip tape is a nice touch.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Excellent Product and packaging</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>19 July 2023</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>I used to use Logitech g pro x superlight but since this arrived i improved in gaming and my aim was more precise. Also the shipping was so fast and the package box included same items like in the description. Firmware update worked also through armoury crate.I recommend this seller! Thank you for the best gaming mouse ive ever had!</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['Quality', 'Weight', 'Appearance', 'Comfort']</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Great mouse</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>17 July 2023</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>The mouse overall is great value for it's price. I have many different mouses including the GPX, Finalmouse, and pulsar x2 and the ROG has been my main mouse since I received it.Pros:-54 gram (really light)-very comfortable shape for all types of users (palm grip, fingertip grip, etc)-good sensor-bluetooth, 2.4hz dongle-usb-c charging (not micro-usb)-good mouse skates-comes with grip tapeCons:-the clicks are stiff compare the competition-the software is very lackluster</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>My new main</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>12 July 2023</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>beats viper v2 and Gpro superlightX</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Great Mouse for FPS</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>05 July 2023</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No complaints from me for this mouse. I was in the market for a new mouse and was looking for something that was going to be wireless. I was between 3 mice and rolled the dice on this one with it still being fairly new with minimal reviews on it compared to its competition.I couldn't be happier with the results the only downside I've found is wear and tear on the grips, but I'm sure this is a me issue with over use.  (The mouse did not need the grips, I just added them on to try them out)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>awesome mouse!</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>04 July 2023</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>I wouldn't ever pay $150 for a mouse but when you can catch this sucker on sale for $99 it is a no brainer.The current best mouse tech is in this mouse with lower than 4k latency and you got yourself a banger.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Great mouse</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>11 June 2023</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>i love this mouse but its pretty expensive because i bought it for 150$ but its reallllllllllly good</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Meant for the true one</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>07 June 2023</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Unreal shape and size</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>['Value', 'Quality', 'Buttons']</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Alta presicion, ligero y de gran galidad</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>05 June 2023</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>es un muy buen producto, se adapta a mis necesidades y es lo que esperaba</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>You need to get this mouse</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>31 May 2023</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-Solid build quality and the weight is perfect-Mouse skates glide smoothly and there are also extra skates included-No pre or post travel-Side buttons do not feel mushy-I would recommend using the grip tapes if your hand gets sweaty-Shape-wise, this feels very similar to the GPX Superlight, but slightly higher hump at the rear. I personally prefer this shape. The coating is a noticeable difference between these two.DO NOT DOWNLOAD ARMORY CRATE. This software is a pain to use, and can end up doing harm to your computer. IT IS NOT NEEDED.I was worried about having to download this in order to use the mouse properly, however, the manual has a guide of all hot keys and combinations you can press on the mouse that can adjust the RGB, DPI, etc. If you do this option, there is no way to turn off the RGB unless you download Armory Crate. (ASUS has advertised the mouse to have a 79hr battery life with default RGB on and 90+ hours being off - I have it set to breathing).At the time of this review the mouse is priced at $99. If you can get it at this price this is amazing value. I would still pay full price with what ASUS and Aim Lab has brought to the table though. Great mouse!</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>['Value', 'Quality']</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Best Claw Grip Mouse No Contest</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>26 May 2023</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>I’ve had a ton of expensive gaming mice thanks to hardwareswap and mousereview. I’ve tried a ton of shapes and was maining the Kone Pro Air. I’ve tried so many Logi and Razer mouse and nothing comes close to this. Clicks are super crispy especially the side buttons, scroll wheel is tactile and 54g makes gaming and work feel great.I did not nor do I plan on installing the software, so I play on 1600 DPI and after playing around in Aim Lab the scroll wheel RGB is breathing the same color as the side buttons. Just buy it man!One piece of advice is definitely use the grip tape for the sides cuz it is slippery!</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>['Clicking', 'Weight', 'Value', 'Buttons', 'Comfort', 'Quality']</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Great mouse!</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>09 May 2023</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Simply like it</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Could have been GREAT!!!!!</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>16 April 2023</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>It’s a confused hybrid Logitech GPX, Pulsar X2, Viper Ultimate, Death Adder mashup mouse that is great if you’re a mouse newbie with large hands but all over the place if you don’t. The M1 and 2 could have been longer and the hump could have been brought down and less “peaked”. The flared M1 and M2 are good. The booty of the mouse could be more pronounced and bam amazing RBG mouse that’s lightweight. The M3 and M4 are almost perfect. The scroll wheel press could be a little easier to push but the ladder feel scroll is on point. Please do some more testing with actual mainstream players not streamers and get feedback from people who use the GPX as their daily driver as I think this was a monster mash input case.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>['Clicking', 'Value', 'Weight', 'Quality']</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Perfect mouse for gaming!</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>14 April 2023</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>The media could not be loaded.
+I’ll say this mouse is one of the best options available on the market. The weight is so light that it helps both gaming and daily use. I can easily carry it anywhere. It’s good to work with AimLab to develop this mouse and the software did give me some clues to adjust my mouse setting. I love how the buttons are a little bit firmer than other mice. This way I know I won't accidentally mis click when gaming. Additional PTFE mouse feet and grip tape are included which allows a certain level of modification. I would say that this mouse is on the same level of Logitech superlight and Razer deathadder so you should consider this one if you want a light mouse with good performance.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>The Perfect Mouse!</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>07 April 2023</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>The media could not be loaded.
+I've tried some pretty incredible mice, but this one has seriously helped me get better. Aiming with this mouse feels amazingly accurate! Coming from the Razer Deathadder V3 Faker edition with the 4K hz polling rate. I didn't have the upmost confidence that this mouse would impress me to the point of becoming my new main over the new Deathadder, but for me it's not even a contest. Honestly when I first started using the mouse I did not like the texture of the finish they used. I just couldn't seem to find my proper grip and I also was not impressed with the stock feet. Not wanting to return the mouse because I decided I'd keep it as a collector, I went ahead and went all out and replaced the stock front feet with the bigger pfe feet included with the packaging.  I also installed the included grip tape on to the mouse as well... when I tell you after making these mods it felt as if I were using an ENTIRELY different mouse compared to my initial use. The mouse all of a sudden felt like a glove for my finger tip/claw grip style. The grip tape seriously made the mouse feel like I was connected with it rather than it feeling like I was holding an oddly surfaced object. Replacing the front skates made the mouse feel much more precise when aiming. The mods only added on 4 grams as well; So the mouse felt even more like an extension of my hand due to it's light weight with the added grip. I've heard Boardzy complain about the the L mouse click being too stiff. Totally disagree. It's enough pressure to avoid a misclick, but still super spamable. My only gripe is the AWFUL software. Armory Crate is trash. I should not had to download a multi-Gigabyte sized app software to use the mouse. Also the software is very intrusive [do your research]. Other than that thus mouse is seriously so under-rated that it's ridiculous. The fact that it made me switch from my Deathadder so quickly and so easily is quite the statement.  My advice to anyone looking for a premium ergo mouse, I'd HIGHLY recommend purchasing this mouse and customizing it with the included add-ons until you find the perfect fit. HIGHLY RECCOMEND!</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>['Clicking', 'Appearance', 'Adhesion', 'Value', 'Quality', 'Buttons', 'Comfort']</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>One of the best mouse I have ever used</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>05 April 2023</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>I bought this mouse because I was curious and wanted try out a lighter mouse (coming from using mice like the G502), this was an awesome experience.  I now understand why the pros prefer lighter mice, and this one is phenomenal.I love the shape, weight and performance of it, it really is awesome.  The only complaint I have is the side buttons, they are not black (they are blue).  The blue color does not match the rest of my PC setup.I recommend this mouse to anyone.  ASUS, please release an black version of this mouse.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>['Weight']</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Light weight &amp; attractive</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>05 April 2023</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Mouse is very light and the grip tape is a nice touch. ROG makes some fantastic products.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>This mouse fits me like a glove.</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>02 April 2023</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>So I’m a mouse collector. I know silly but I love getting a new mouse every 2-3 months. This is my most recent mouse in my collection. Basically this is my daily mouse cause it fits perfect for my palm grip style. Buttons do take a little more push to get the to register  but I love that. My DeathAdder v3 pro I use to Miss click all the time cause how light they are. Flicks no issues for me lightweight and very responsive. The armour software needs to be reworked with all the extra unnecessary stuff. All in all love this mouse and I feel the price is fine cause of it’s light weight and how responsive it is. Well done asus. Also aim labs is a cool touch but I don’t really use it.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>['Weight', 'Clicking', 'Value', 'Buttons', 'Quality', 'Adhesion', 'Appearance']</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Replacement for logitech mouse</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>31 March 2023</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>If you like the logitech superlight or any 54g mouse you like this as well.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Feels like butter</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>18 March 2023</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Title sums it up</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>['Clicking', 'Adhesion']</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>One of the best choices in 2023</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18 March 2023</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Really worth the price. 54g is light enough</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Aim Assist for FPS Gaming</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>13 March 2023</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>A pure Keyboard and Mouse users dream, use it with the Aimlabs software and it’s perfect. If you have a hard time find your perfect mouse settings this is the mouse you need, and it’s great for larger hands without sacrificing weight and speed</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Perfect alternative to the G Pro Superlight!</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12 March 2023</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The mouse matches up nicely to my Asus motherboard and other RGB peripherals that it controls. As the headline states, this is a perfect alternative to the G Pro Superlight as I prefer the materials that Asus used on this mouse. I also get Bluetooth, so I can sync up to my secondary system along my main. I feel like they one upped in every way.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>['Clicking', 'Value']</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>21 February 2024</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Rápido, cómodo, caro nose si valga el precio pero no decepciona en nada, llegó bien protegido y lo mejor es que el producto es 100% original</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>05 January 2024</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Para mi es el mouse perfecto.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>['Clicking']</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>05 January 2024</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>The mouse is a bit small on my hands but works well after adapting to it. Although the asus armory crate drivers are sometimes just as bad as razer synapse</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>['Weight']</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>30 August 2023</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>It's good</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
         <v>1</v>
       </c>
     </row>

--- a/scrapping/amazon_reviews.xlsx
+++ b/scrapping/amazon_reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dead on arrival, huge software bloat</t>
+          <t>Trash and broke</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29 March 2024</t>
+          <t>16 April 2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The unit I got didn't power on at all except when plugged in, making two of the three modes useless. In addition to that, to update firmware and change settings, you need to install Armoury Crate which is ~2.9G. This is ridiculous. For the price, it is essentially a well-built light mouse with a good design, but unfortunately the QA and user experience doesn't hit the mark.</t>
+          <t>I disliked how this company or person sold this controller to people saying it was clean and not dirty and was brand new, no its not!! I'm never ever BUYING FROM  HERE AGAIN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>constantly disconnects</t>
+          <t>Need to double check your items</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -504,17 +504,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11 March 2024</t>
+          <t>15 April 2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>I've tried this wired and wireless and the mouse disconnects randomly on both windows 10 and 11.</t>
+          <t>I ordered this to give amazon refurbished items and I was very disappointed. I plugged it into my system and right away it was stuck like the left arrow was pushed constantly. I tried to basic troubleshooting steps with no luck so needless to say I'm not going to waste any more time and return this controller.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Adhesion']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -524,7 +524,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bad QC, side buttons stick</t>
+          <t>Useless. Wouldn’t pair *or* play wired on a gaming laptop…</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -532,27 +532,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10 January 2024</t>
+          <t>14 April 2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Day 2 of using the mouse and side buttons already started sticking.Quite disappointing since it makes the side buttons quite annoying to use.</t>
+          <t>Out of the box I charged it for a few hours to be sure it was working. It did arrive in good conditionI tried so many fixes to make this work despite it being for a new gaming laptop. It will blink like it’s in pair mode but nothing happens. Checked my drivers, did admin scans, everything I could search to troubleshoot. But my laptop (&amp; phone) would not discover this controller at all, I wonder if it was even tested on PC &amp; PS before being listed. Plugging it in via the usb my laptop registers it solely as an audio device not a controller &amp; I couldn’t change it.At first I initiated a replacement until I realized I could get a new licensed Genshin Impact controller for less money &amp; no headaches. I wanted to love this &amp; go refurbished to put less plastic in circulation but if they send out “new” items like this how long will anything I get that does work last before it breaks too?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Updating did not work and sensor stopped working</t>
+          <t>Dañado</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -560,27 +560,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09 December 2023</t>
+          <t>11 April 2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I plugged this mouse into my computer and the only thing that worked is left click,right click, and scroll wheel. Moving the mouse around did nothing. I guess the sensor broke. I tried updating the mouse in armoury, following the instructions but the mouse still doesn't want to update. Its crazy I have to try and troubleshoot something as simple as a mouse.</t>
+          <t>The media could not be loaded.
+No me funciona el botón (cuadro)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>broke like a 10 dollar mouse</t>
+          <t>Stick drift included (dont buy)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -588,17 +589,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19 November 2023</t>
+          <t>11 April 2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>what a piece of garbage... waste all that money.. return window closed 4 days ago, JUST MY LUCK.</t>
+          <t>The media could not be loaded.
+The stick drift is soo bad tht they shouldnt even sell these controllers like i ca barely even use the controller</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -608,7 +610,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>double click issue</t>
+          <t>Same price as a new one</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -616,28 +618,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08 November 2023</t>
+          <t>08 April 2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The media could not be loaded.
-I bought this mouse a week ago and after only 7 days of using it it gave me a double click problem, how can this be possible? on a high-end mouse</t>
+          <t>I buy it because I thought I was going to be fine with but I change my mind I can't buy a new one for the same price..</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Value', 'Appearance']</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Double clicking within 2 months</t>
+          <t>I'm not putting in</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -645,17 +646,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02 October 2023</t>
+          <t>30 March 2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>within 2 months it already has a massive double clicking issue. not ok</t>
+          <t>As soon as I tried playing with it the controller was sticking or broke cuz the right analog stick is sticking and some the buttons</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -665,7 +666,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Overpriced</t>
+          <t>Dead controller</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -673,17 +674,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25 September 2023</t>
+          <t>24 March 2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mouse is... ehhhh. Clicking isn't really all that, the material and how it feels isn't really anything different than a default mouse that you would get with a desktop for free. The default detection for the laser is so low that at first my standard mousepad couldn't even pick it up and I had to manually change it with the software. It has terrible traction, I tried it both on my mouse pad because it felt like it had some drag or something on it so I put it on just clean flat wood desk and you could hear the bottom scraping. Overall it is just a really meh mouse, feels and operates like its a super cheap mouse, but wait its 150 dollars! Yeah... no. Huge waste of money and it was a huge relief to go back to my G502 Hero logitech mouse. I highly do not recommend buying this mouse, especially if you are an avid gamer and even more so if you like to grind out aim labs, because out of all the different mice that I've tried with my aim lab grind, this one is ironically the worst! Stay away from this mouse unless they miraculously half the price.</t>
+          <t>I bought this thinking that’s a good price for a controller read some reviews but come to find out I can’t even use it cause it’s dead out of the box. Won’t charge, tried changing the batteries from another controller but no it has a dead motherboard. And yall say it’s refurbished no it’s not don’t waste y’all’s money.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -693,7 +694,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Let down</t>
+          <t>Bad product</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -701,27 +702,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15 September 2023</t>
+          <t>21 March 2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Was looking for a new gaming mouse after my Razer Viper Ultimate started to die on me after ~2 years.Saw this and was intrigued and decided to give it a shot.I was initially not very impressed with the quality and the way the mouse felt, especially with the price tag attached to it.  Was also not very impressed with the software or the monthly fee they want in order for you to use it on top of buying their product.  Ultimately, the biggest disappointment is that the mouse frequently turns off and back on, which is not good when trying to play online games where 2 -3 seconds of not moving = losing.  I know its an issue with the mouse because my other gaming mice do not have the issue and the lights definitely go out on the mouse every time it happens.Hate to say it because I have a lot of other ASUS products that have been great, but this mouse is definitely not cut from the same cloth and I cannot recommend it.  Maybe if it was like 20 bucks and you had no other choice.</t>
+          <t>The controller came with stick drift</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Asus - great PCs, terrible peripherals</t>
+          <t>Used controller</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30 June 2023</t>
+          <t>16 March 2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Never had so many issues with such a common item. The mouse constantly and randomly disconnects itself and usually reconnects (after about 10 seconds). This happens regardless of what USB port is used and regardless of factory or updated firmware. Just skip this one...</t>
+          <t>I thought was buying new but no! Controller came with no cord to plug into ps.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -749,7 +750,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Double Clicking Issue Within 2 Weeks</t>
+          <t>Broken start button</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -757,17 +758,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16 June 2023</t>
+          <t>13 March 2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Within two weeks of owning this mouse both the left and right clicks randomly double click.Tested it on multiple computers and for the price you pay for this mouse this shouldn't even be a possibility after 2 weeks.</t>
+          <t>Controller had an overall “ugh someone’s hand gunk is on this” feel and the start button would not work at all</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -775,21 +776,27 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Never by used</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17 July 2023</t>
+          <t>27 February 2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mouse itself is great but the armory crate software needed to make it work is absolute garbage. It constantly resets my settings, updates fail continuously, and often it doesn't even detect my mouse is connected (wired or wireless mode). If the software works half the time I am happy.</t>
+          <t>Never buy anything used it came very dirty, sticky and one of the buttons doesn’t work. Better buy a new for 200 then 176 that is not functional and very gross because it was used. Don’t be cheap</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['Quality', 'Value', 'Appearance', 'Adhesion', 'Comfort', 'Buttons', 'Clicking']</t>
+          <t>['Appearance', 'Easeofuse', 'Cleanliness']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -799,53 +806,53 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Not for Folks with Arthritis or Carpal Tunnel</t>
+          <t>Horrible stick drift</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10 January 2024</t>
+          <t>21 February 2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The mouse tracks very well and has excellent battery life however it's small size and simple design forces the user to adopt a hand position that is not conducive to wrist comfort. Additionally, the buttons have a high degree of resistance that quickly tires the back of the hand with extended use. I much prefer my old Gladius II but for the fact that is corded.</t>
+          <t>Was supposed to be in almost new condition and fully refurbished, came dirty and with almost unbearable stick drift</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Comfort']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Not worth the money</t>
+          <t>STICK DRIFT!!!</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07 January 2024</t>
+          <t>17 February 2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bought this product, and returned it after a week. The sticker on the bottom started peeling and rubbing against my mousepad, after only a week of light use. This mouse is way overpriced for the build quality, there are other similar options from different manufacturers with better quality for the same price. Do not recommend</t>
+          <t>My controller had stick drift after one hour of gameplay so yeah I’m pissed paid 80$ for overnight shipping and this is what I get??? Nah fam run my money back please</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Easeofuse', 'Cleanliness']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -855,53 +862,53 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Concerning Build Quality</t>
+          <t>Bad quality close to retail price</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16 November 2023</t>
+          <t>16 February 2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>I like it quite a bit. It has both bluetooth and 2.4g wireless, decent coating, and good battery life. Nothing to really complain about, except the fact that the middle mouse button/scroll wheel no longer registers a click. I use this mouse for work a lot and middle click is something I used daily. Really disappointed.</t>
+          <t>I was disappointed price is very close to retail it’s in a plastic bag not even in a box. I  bought this one by mistake, thinking it was not renewed and it was original, but I tried to instead keep it but later, finding bumps and scratches. The triggers on both sides The colors didn’t match the seams on the controller had gaps it almost looked like an aftermarket controller.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Quality', 'Value', 'Cleanliness', 'Appearance']</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Double clicking problem 1 month in</t>
+          <t>Terrible</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06 November 2023</t>
+          <t>14 February 2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The switches are cheap as crap and started double clicking and not holding a click.  Trying to hold ADS and it goes in and out of aiming.  It will double up firing both barrels off my Caldwell shotty when I only shot once.The grip tape is cool, but it the adhesive starts to come off and is sticky on the very edges and is annoying.Battery life is decent.</t>
+          <t>I went ahead and ordered this controller and was actually kind of excited but by the time it finally got here I wasn’t happy at all!! The controller was scuffed and had stains from heavy heavy use and better yet it would not start, it would not charge it wouldn’t even blink!!! 110% will not purchase this again from them!!</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -911,109 +918,109 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Great mouse marred with awful sofware</t>
+          <t>Didn't last</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>26 October 2023</t>
+          <t>13 February 2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Returned because of aggressive armory crate prompts. The aim lab part is a little gimicky but whatever, mouse is really nice I enjoyed using it. After disabling Asus armory crate services and removing all of its vicious little files I noticed that the "update checker" aka nag ware prompt was loaded with the mouse driver under C:\windows, so this mouse is not driverless and ASUS again destroys a product with software no one asked for. Its bad enough I have to disable the armory crate prompt every bios update for my motherboard.</t>
+          <t>Went bad 6 months after purchasing smh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['Value', 'Adhesion', 'Clicking', 'Buttons', 'Comfort', 'Weight', 'Appearance']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Great mouse for daily use but not so much gaming</t>
+          <t>Didn't work for long</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14 April 2024</t>
+          <t>07 February 2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>I love the weight of this mouse and the RGB is a nice surprise given I would expect a wireless mouse at this weight and price point would not have it. The censor is amazing, and the battery life is phenomenalThat said, I'd have prefered Asus's push fit switch sockets over the RGB, even if it did add more weight, and the actuation on the mouse buttons is less than desirable for tapfire in games, which i can only attribute to whatever switches they're using. Asus Armoury Crate is also a nightmare and I had to backup and reinstall windows to get it to install/update firmware for this mouse, which was incredibly annoying.</t>
+          <t>Worked for only about 3 months before stick lag became an issue and got so bad you couldn't use it at all. Characters would be stuck permanently running one way, no matter the game.  Tried everything to trouble shoot it at home.  Wish I got the warrantee.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['Weight']</t>
+          <t>['Appearance', 'Easeofuse', 'Quality']</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Quality mouse, armoury crate kills it</t>
+          <t>Rip off</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>02 January 2024</t>
+          <t>27 January 2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>This is my first mouse upgrade in a long time. I cannot compare it to the DAV3 or Gpro. I will say that it looks and feel really nice. I personally like the little RGB wheel. The mouse has this coarse coating that gives it a better grip. The front side button is a little hard to reach comfortably (I'd say I have normal sized hands).I've also got the Scope II keyboard, so I use armoury crate to control the rgb, updates, and customization. Armoury crate is as awful as you've probably heard and causes computer stability issues. I got this for $70, so it was still worth the money. At $100+, there are similar quality options without the stability issues.</t>
+          <t>This controller came broken. It pushes buttons and scrolls on its own, the seller basically steals your money and gives you garbage in return.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>eh it’s ok</t>
+          <t>HORRIBLE STICK DRIFT</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21 August 2023</t>
+          <t>24 January 2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>It’s a nice mouse love it but one thing bothers me a lot which is that the switch for either usb, bluetooth is on the bottom so it will accidentally switch by it self as i’m gaming and then the mouse won’t move till i fix it..</t>
+          <t>Received this as a birthday gift after the controller included with my console developed stick drift. Less than 6th months later, it had stick drift worse than the other one.Then Sony makes a controller that doesn't easily develop stick drift and wants to charge $200 for what should be standard quality</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Buttons']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1023,193 +1030,194 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Good Mice, sadly mine came a little defective, i'm returning this one and getting a new one</t>
+          <t>Damaged &amp; wrong color</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21 June 2023</t>
+          <t>20 January 2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Honestly its performance is just clean, it shines and its lightweight its pretty amazing, the only thing that i found wrong is that it came defective on my end, which had the problem of not charging, so im returning this one and getting a new one again, worth for the price in my opinion, for more advise if you want a gaming mice for Valorant or either game this one works just fine (Valorant Ascendant 3 player here!)</t>
+          <t>They sent the wrong color and the left joystick was malfunctioning.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Great mouse, poor build quality</t>
+          <t>Stick Drift</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19 April 2023</t>
+          <t>25 December 2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>I like a lot of things about this mouse. The scroll wheel is just perfect in how notchy it is and how easy it is to press down. The button clicks a nice and crispy. Most of all I really like the shape of this mouse, but it will depend on your hand size. I think if you find something like a Logitech GPro Superlight a little small this would be a great mouse for you, as it has a similar shape yet is longer. The mouse feet out of the box are very  good and feel nice and smooth. It also has pretty great battery life, I feel like I hardly ever have to charge it.Although ASUS Armory Crate software is not that great overall, it was pretty easy to get the latest firmware on here and after that you don't really need the software anymore.The coating is... odd. It reminds me of a PBT keycap, and doesn't really provide as good of a grip as many other mice out there. However, it does come with some grip tape so this isn't really an issue. I use it without grip tape fine but it can be a little slippery. Will just depend on your hands and how moist they get.My unit has some poor build quality. After 2 weeks the mouse wheel has started having some side to side play in it. The side buttons have a small amount of pre travel to them, and they have developed a sproingy sound when you tap them. Not what I consider acceptable. I will be returning it for a replacement and hopefully that one will be better.</t>
+          <t>I got it and thought it was going to be brand new but there is a stain on it and the stick drift is absolutely horrible. Would not recommend at all. I have to return it</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Quality', 'Clicking', 'Buttons', 'Weight', 'Appearance', 'Adhesion', 'Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>The sensor</t>
+          <t>No good!</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>26 March 2023</t>
+          <t>16 December 2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>When I use this mouse and pick up my mouse and kinda microflick it rarely does register. While my superlight always does, its really good other then that but thats a big part of my aiming technique.</t>
+          <t>Controller has drift. Constantly pulls left. Worthless. Should have bought new.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Not for smaller hands/claw</t>
+          <t>Don't purchase refurbished/renewed</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24 March 2023</t>
+          <t>04 December 2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>This mouse is longer than the Logitech g pro wireless and pretty narrow. The side buttons require you to extend your thumb just to reach them. Maybe more appropriate for people with longer hands and those that favor Palm grip. Still trying to get used to it. In comparison the razor viper ultimate is also a smaller mouse.</t>
+          <t>Received with broken non functioning buttons</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Buttons', 'Value']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mouse good software bad</t>
+          <t>Waste of money</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15 April 2024</t>
+          <t>12 November 2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Honestly I find the mouse very comfortable for my larger than average hands, it looks great too, but I would reccomend setting the rgb and uninstalling the software, infact be very comfortable when installing armory crate because it will install a bunch of bloat with it</t>
+          <t>Since I bought this I'be nothing but problems. The lect paddle internals broke so I went and sent to sony for repair. They sent it back a month later it was either a refurb controller or the same one but the same left paddle internas broke again. Rather then dealvwith thechassle again i attemoted tobrepair myself. It's garbage and the right joystick has serious drift after maybe a 100hrs use. Probably by design so you buy a new module. It's basically a 200 dollar paperweight.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Comfort']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>As Listed</t>
+          <t>Terrible controller</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>29 March 2024</t>
+          <t>25 October 2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>As Listed</t>
+          <t>The media could not be loaded.
+I bought this controller because my other one had stick drift how ironic because this one’s stick drift is even worse turn up your volume for the video you can hear the sound it’s makes when you can’t go any farther left on the screen. Overall this is a bad product I read some other reviews and even when they worked some came out dirty horrible product.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Clicking', 'Value']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Great mouse, decent durability</t>
+          <t>The d pad is not working</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>04 March 2024</t>
+          <t>10 October 2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>It has been 11 months since I purchased this mouse. At about 2 months of use, the middle scroll wheel started to have more than normal amount of wiggle room on the left and right of the scroll wheel, allowing it to tilt left to right more than usual. That was very annoying and hard to get used to but once I got used to it, it has not bothered me at all since. At about 5 months of use, the glue/sticky material on the back of the grip tape. Started to slide around under the grip tape eventually having the grip tape no longer able to stay attached or stuck in place on the mouse. The feel of the grip tape is really nice and it worked great other than the glue/sticky back that needs to be replaced with some sort of different backing. At 11 months of use, the battery no longer lasts as long as it used to last using the wireless dongle. Lasting only about 20 hours now, instead of the 40-50 hours it lasted out of the box. All in all, the mouse it great. But those are the few issues that I've had over time with it. Probably wouldn't spend this much on this specific mouse again though.</t>
+          <t>This is a defective product. Too much hazle picking it up and returning now.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1219,81 +1227,81 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Curioso</t>
+          <t>I would not but it so dont</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09 February 2024</t>
+          <t>08 October 2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Después de usarlo un tiempo la experiencia es buena pero por momentos detecto un doble click medio sospechoso aunque no es tan frecuente como para tomarlo en cuenta</t>
+          <t>When I got the controller I found out it had a bad stick drift now I can’t even use it without pissing me off</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nice mouse for gaming</t>
+          <t>Complete trash</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13 December 2023</t>
+          <t>07 October 2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Niche mouse for fps games - I really like this mouse, comfortable, light, good control. I have several others that are Razer brand and this feels better than all of them.</t>
+          <t>I've only had it for 8 months and play 4 hours a day and the rubber grips are bubbling and the left one has peeled off, also the right analog keeps messing up and when I try to select an item from a item wheel in a game it flickers and won't allow me to select the item.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Easeofuse', 'Cleanliness']</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Great mouse but 2 issues</t>
+          <t>Won’t hold a charge</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>27 September 2023</t>
+          <t>28 September 2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Great mouse light and great even weight feel but the clicks are stiff and the program needed to adjust dpi and other settings was a pain to install. very complicated and confusing for some reason you have to install asus's whole operating aura dashboard.</t>
+          <t>Sadly this one won’t hold a charge anymore</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Weight']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1303,48 +1311,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Feather Light (ASUS ROG Harpe Ace Aim Lab Edition Gaming Mouse)</t>
+          <t>This is more expensive than buying new, and it had stick drift</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28 July 2023</t>
+          <t>28 September 2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>I purchased this mouse due to the fact that it incorporates the new SpeedNova wireless technology and includes the new ROG Omni Receiver. A wireless technology that will be compatible with new ASUS ROG devices released after 2022.Granted this mouse is advertised as being light weight, but I prefer a mouse with more substance. The mat finish is a plus, however just how long with the finish last on the top left and right buttons? Hence, the reason for the included decals for an anti-slip grip experience.For the most part,  the mouse is responsive. Unfortunately there are times when right clicking via 2.4GHz connectivity, it is non-responsive. Even when using the USB extender and I continue to experience the problem. If you review some of the videos for this mouse,  it shows the dongle directly in front of the mouse during game play for a reliable connection.</t>
+          <t>Husband bought this by mistake instead of a new controller, which is actually cheaper than this "renewed" one. Has weird stick drift going on so I am going to return it.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fantastic Mouse, Questionable QC</t>
+          <t>Drifting after 2 months</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22 July 2023</t>
+          <t>09 September 2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>I purchased this mouse on sale for Prime Day. My first copy had a lot of side to side play on the scroll wheel and the feel was pretty rattley and bad. My 2nd copy is perfect and I'm amazed by how good the quality feels. Rock solid, very lightweight but doesnt feel hollow. Performance is top tier, and battery life is also fantastic.</t>
+          <t>Video Player is loading.Play VideoPlayMuteCurrent Time 0:00/Duration 0:00Loaded: 0%Stream Type LIVESeek to live, currently behind liveLIVERemaining Time -0:00 1xPlayback RateChaptersChaptersDescriptionsdescriptions off, selectedCaptionscaptions and subtitles off, selectedAudio TrackFullscreenThis is a modal window.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1359,53 +1367,53 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Very good.</t>
+          <t>Didn’t work</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>25 May 2023</t>
+          <t>25 August 2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>It’s a very good mouse, but I still prefer the Logitech pro wireless super light. 4/5 for me.</t>
+          <t>This is a refurbished controller and still had stick drift. Don’t buy from this seller</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>needs side grips</t>
+          <t>Stickdrift</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21 April 2023</t>
+          <t>19 August 2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>great mouse and all just wish they made gripy side strips u could put on</t>
+          <t>It came with stick drift</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1413,133 +1421,139 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Broke</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12 February 2024</t>
+          <t>31 July 2023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Es un poco más grande de lo que esperaba, pero de ahí en fuera, todo bien</t>
+          <t>Didn't even last a month before I started having problems with it.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>The Speednova dongle is docked inside the mouse</t>
+          <t>Controller no good</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>27 March 2024</t>
+          <t>24 July 2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>If you are like me &amp; cannot find the dongle, it is attached to the mouse itself on the underside. So far, I'm really enjoying it.</t>
+          <t>The controls came in defective and it’s been a hassle getting through to seller. I took three days for them to contact me back through email with shipping instructions where they want me to pay for return postage!!  I am very dissapointed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I absolutely love this thing!</t>
+          <t>Mad stick drift</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17 March 2024</t>
+          <t>18 July 2023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>I really had doubts about how much difference a mouse could make to my gaming experience but...This thing makes all the difference in the world for me. Your milage may vary. I love how light it is, and the responsiveness is out of this world. Add the aim lab calibration and you have a serious weapon in your hands. I did add some after aftermarket skates right after I got it just to see what would happen. The new skates are better (more slippery) than the stock ones but, just barely. So, out of the box this thing is just a beast. I did opt to use the included grip tape but just on the sides and I like the feel. Again, your personal milage may vary.</t>
+          <t>The controller was good at first but now it has bad stick drift</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Quality', 'Value', 'Clicking', 'Weight', 'Buttons', 'Appearance', 'Adhesion']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>Refurbished</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17 March 2024</t>
+          <t>09 July 2023</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>I thought I was buying a new controller but it’s just a refurbished controller and the joy stick is already stick drifting less than a week of having it</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>On par with Logitech Superlight</t>
+          <t>not worth the money, at all.</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11 March 2024</t>
+          <t>07 July 2023</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>It's wireless and lightweight, best combo. Performs just like the Logitech Superlight which is also great. The only thing I think this is better than the Superlight is the longer durability of the scroll wheel. Otherwise this mouse is great if you want wireless, lightweight, and good quality material build.</t>
+          <t>battery life on this controller is less than an hour, and charging it takes 4 hours.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['Quality', 'Value', 'Comfort', 'Weight', 'Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1549,195 +1563,193 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Best Mouse I Ever Purchased!</t>
+          <t>Moral</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10 March 2024</t>
+          <t>06 July 2023</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Loved this mouse &amp; managed to get it on sale. Totally worth it!</t>
+          <t>Trash!!!</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Great mouse</t>
+          <t>Stick Drift</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02 March 2024</t>
+          <t>02 July 2023</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>As a user of the finalmouse ultralight, Logitech G Pro Superlight +, I really enjoy using this mouse. The mouse has a great feel to it, firm yet has some give. Not sure if worth the price, but I have absolutely 0 complaints and will use this over the others for a little while.</t>
+          <t>I’ve had my controller for 2 days now and it’s already drifting.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Best mouse!</t>
+          <t>Literally unusable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>27 February 2024</t>
+          <t>30 June 2023</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>The media could not be loaded.
-Love how light it is , fits just amazing, fast and very responsive, price is high but worth it!</t>
+          <t>I had my 1st controller then it stopped charging, i bought this one and the day i got it, it wouldn’t connect would flash orange or blue and it’d say that it needed to have a usb connection to set it up when it was quite literally plugged in with 3 separate chargers multiple times.  If you want to actually play the game instead of trying to fix your controller, get an xbox instead :)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Increíblemente ligero</t>
+          <t>Never gonna buy refurbished stuff from Amazon</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>22 February 2024</t>
+          <t>16 June 2023</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Estaba buscando un cambio a mi viejo Razer Mamba, el cual perdió la tapita para almacenar el USB receiver y quería algo más ligero.Bueno este ACE es el ratón más ligero que jamás he usado. Es lo primero que nota todo el mundo.Solo tiene una luz RGB que va cambiando de tono y la batería dura mucho. Más que mi Mamba. Lo único malo hasta ahora es lo mucho que se ensucian los pads en las esquinas abajo, hay que limpiarlos regularmente para q no evite que el ratón se mueva con facilidad.</t>
+          <t>I bought a refurbished ps5 controller and it’s sat in description it works perfectly but when i received it switches not working smoothly especially X it was not working at all. I returned it the same hour I received.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Adhesion', 'Comfort', 'Quality', 'Weight', 'Value', 'Appearance']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>I'm A Twitch Streamer!!!!</t>
+          <t>broken</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15 February 2024</t>
+          <t>04 June 2023</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>I Use It In My Setup I've Used It As Part Of My New Setup It's An Amazing Mouse!!!!!</t>
+          <t>the controller came in pieces.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Great buy</t>
+          <t>Does not work properly</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>05 February 2024</t>
+          <t>31 May 2023</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Got this for my gamer son and he loves it. Good quality and no issues</t>
+          <t>The X button only works when it wants to. Sometimes it works when you do not want it to work.😠🤷‍♂️</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Quality', 'Easeofuse', 'Cleanliness']</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Harpe Ace is a winner!</t>
+          <t>"renewed"</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01 February 2024</t>
+          <t>25 May 2023</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Video Player is loading.Play VideoPlayMuteCurrent Time 0:00/Duration 0:00Loaded: 0%Stream Type LIVESeek to live, currently behind liveLIVERemaining Time -0:00 1xPlayback RateChaptersChaptersDescriptionsdescriptions off, selectedCaptionscaptions and subtitles off, selectedAudio TrackFullscreenThis is a modal window.
-ASUS knocked it out the park with this release! The mouse is extremely responsive and despite its low weight is built extremely well. There is literally 0 flexing or creaking. I also appreciate the presentation and all the extras you get in the box. Glad I got it and would recommend it!</t>
+          <t>this was a "renewed" controller and came with the right analog stick half out the socket and tearing on the left stick</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1747,81 +1759,82 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>works well with big hands. and its very light</t>
+          <t>Used controllers was given to me</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23 January 2024</t>
+          <t>16 May 2023</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>very light gaming mouse that works well with azoth keyboard. im happy with it.</t>
+          <t>Sold me two used up controllers scratches , some type of food stain or toothpaste on the right trigger and on the R1 button I was hype at first thinking I was getting two new controllers end up being the complete opposite</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['Comfort']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>I was surprised.</t>
+          <t>Came broken</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>22 January 2024</t>
+          <t>14 May 2023</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The first reaction i had was that it is so Light. I thought that it may have taken some form of rechargeable batteries and started looking for the compartment. Given its internal battery it has a great life span. My experience so far it would seem to be 30-40hrs on a charge. With the supplied USB-c cable connecting the mouse to your Computer, in my case my Gaming Laptop. Has a Fast charge speed. Easily track the battery life with the Asus ROG Armory Crate software. The onboard RGB light in the scroll wheel is adjustable with before mention Armory Crate software. I've chosen to turn the RGB off to help maximize battery life. The mouse has great versatility being able to switch between Bluetooth, Cabled USB-c, and Wireless with the adjoined Wireless dongle tucked away under the mouse. The glide of the attitude is smooth and not undesirable. Supplied with additional skates, to use as replacements. The second set seem to be slightly thicker than the already installed skates. Mouse operation is intuitive as a mouse should be the buttons are solid and responsive, with pleasing "Clicks and Clacks".  I am very Pleased with this mouse for my Gaming laptop.</t>
+          <t>Came with every button mapped to the wrong input, stick drift, and some inputs/buttons not available entirely.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['Weight', 'Clicking', 'Appearance', 'Comfort', 'Quality', 'Buttons', 'Adhesion']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nice Mouse</t>
+          <t>Was great up until right after the return window closed</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18 January 2024</t>
+          <t>14 March 2023</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nice feel, very light. I'm using it via USB dongle and it seems to work very well. I like the light under the scroll wheel and it seems to have a long battery life, even with the scroll wheel light.</t>
+          <t>The media could not be loaded.
+Direction analog stick isn’t lopsided or stuck, inverted controls aren’t on but my husband says in game it goes the opposite direction of where he’s steering the control. Never had a controller break like this before and certainly not in a matter of less than 3 months (opened and used starting Christmas) and ironically the return window was March 4th and it didn’t start acting up until yesterday.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1831,25 +1844,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Uno mouse extraordinario</t>
+          <t>Manchado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14 January 2024</t>
+          <t>06 February 2023</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>He usado muchos mouse gaming y tengo entre mis principales el Logitech Gpro X superligth, Razer deathadder V2 y se sumó este, es muy ligero y preciso combinado con su mousepad ROG Aimlab. Un punto en contra es su software Armory la primera vez se desvinculó pero reinstalándolo lo resolvió así que no se asusten. Por lo demás todo bien lo recomiendo.</t>
+          <t>No se ve ni luce como nuevo como dice la descripción y vino con una mancha en el panel táctil de desgaste</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1859,81 +1872,81 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>After 6 different mice, I've found the perfect one</t>
+          <t>Refurbished and had to send back didn't work</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10 January 2024</t>
+          <t>08 January 2023</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>I've owned many mice: the most recent are the G Pro X Superlight, and the final mouse ultralight. The battery life on the G Pro X superlight was ok, but it wasn't great. It also didn't support bluetooth, which is nice to have as I use two different computer regularly. Also the X is charged with micro-usb instead of usb-c, which should be a legal crime in 2024. The Final Mouse was a disaster on every front other than materials used. Every razer I've had was too heavy, and others just dont have the features.In summary, The Asus ROG Harpe is my daily driver because:- Battery life is great- Battery indicator when low is really useful- very light and ergonomic- usb-c charging- grips that come with it are dope- built in storage for the USB dongle.- Mouse and side button clicks have very little play, solid actuation.This is the mouse to get. Get it.Update:I've used this every day for the past ~4 months, and I like it even more than first purchased. My G ProX sits on my desk unused and looks like a dinosaur. Battery indicator on the Asus has saved me several times in competitive online play (my GProX would just die without warning). It charges really quickly, and saves me from having a dedicated micro-usb sitting on my table to charge my GProX.</t>
+          <t>When we got it back it was delivered to the wrong apartment but it did work!</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>gaming</t>
+          <t>Dead on Arrival.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>27 December 2023</t>
+          <t>06 December 2022</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Amazig for gaming</t>
+          <t>We Ordered 2.  One was dead on arrival (it won't charge or pair) and the other has full throttle stick drift.  I don't even know what was "renewed" about these.  They looked used, and they don't function.These came out of the box and failed within moments.  Not even days...</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Great mouse</t>
+          <t>Es usado</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>25 December 2023</t>
+          <t>23 November 2022</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>I love that the mouse in addition to RF has Bluetooth, I leave the RF at my set up and use Bluetooth in class. The shape of the mouse is similar the razer viper I enjoy it. The clicks are nice too not much travel. I just wish the glides were bigger</t>
+          <t>El control es usado, estaba sucio y no sirvio</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -1943,25 +1956,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>I absolutely LOVE this mouse</t>
+          <t>Didn’t work</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>22 December 2023</t>
+          <t>12 November 2022</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>I got it because it was hyped up a lot and I’ve had my GPro super light since I got a pc about 3 years ago now, I didn’t think a mouse could get anymore comfortable and then I discovered they can! lolIt’s a subtle difference but way more comfortable and lighter.If you’re contemplating trying this out from a super light, I don’t think you’ll be disappointed at all.The side buttons are in a better position it feels like, it’s like a whole 10g lighter than super light , the scroll wheel is a bit more shallow but feels good, the clicks feel crisp. It comes with grippy tape but I don’t feel like I even need it the mouse itself has grips in the design.I took as many comparison photos as I could to help anyone get a better idea of shape difference. (Not a whole lot)Hope this will help!</t>
+          <t>When I got the controller everything with it was fine except for the fact that the X button didn’t work at all.…</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['Weight']</t>
+          <t>['Appearance', 'Easeofuse']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -1971,53 +1984,53 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Overall great mouse</t>
+          <t>Expensive for a product designed to fail</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>29 November 2023</t>
+          <t>31 October 2022</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Coating is meh. Clicks are spamable and sensor performs well. Overall the shape is really good and comfortable that it could even compete with a GPX</t>
+          <t>Bit of an alarmist headline but there are issues with this controller that Sony knew about and they produced it anyway, I also believe they are being sued for it. Anyway, its sad because this is a fantastic controller, great for larger hands, the layout is instinctual, the vibration and trigger feedback/resistance are amazing... the problem is the controller sticks wear out super quick. At my filthy casual level of 3-4 hours a week of play, my first lasted me about 3 months before the dreaded controller drift started in and got progressively worse, becoming unusable around month 4. Yes, it was still under warranty but you have to ship it to Sony for repairs at your own cost and if you only have one controller... well you get to just not play for the 2-3 weeks it takes to get it back. Just be on the lookout for stick drift and as soon as it happens get it in for repair.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Great Mouse For The Price</t>
+          <t>Won't hold charge, needs plugged in all the time</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>08 November 2023</t>
+          <t>26 September 2022</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The world of mice is so competitive and breaking into that market is quite the challenge and ASUS has done it with a mouse most didn’t expect. If you like symmetrical mice this is a great pick for you.</t>
+          <t>Won't hold charge</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['Weight', 'Comfort', 'Clicking']</t>
+          <t>['Quality', 'Cleanliness']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2027,25 +2040,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>One of the best mice I have owned.</t>
+          <t>No battery</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23 October 2023</t>
+          <t>29 March 2022</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>I love everything about this mouse, from how it feels, to how well it works in games, the quality. This is probably the nicest mouse I have ever owned.This review is for the 90 day warranty extension program.</t>
+          <t>As it was a pre-owned item someone had removed the battery before I got a hold of it. I thought they'd at least test to see if things work...</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Easeofuse', 'Appearance']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2055,76 +2068,76 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Better than the G Pro X Superlight</t>
+          <t>Not worth the money smh</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>15 October 2023</t>
+          <t>13 April 2024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Beats my previous favorite, the G Pro X Superlight. Lighter and grippier even without the grip tapes.</t>
+          <t>It looks like a normal working controller on the outside but not even half a day using it there is so much stick drift on the left joystick some games are unplayable with it. For the price they ask you might as well get a brand new one instead.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality', 'Value', 'Easeofuse']</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Extremely Solid Mouse</t>
+          <t>Cosmetically renewed but actually arrived faulty</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12 October 2023</t>
+          <t>19 March 2024</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>The texture of the material is a bit strange compared to normal plastic, but you get used to it quickly. The battery life is golden, I charge about once a week and am a heavy user. The biggest win is the latency - this mouse with a wireless connection has a faster response time than my wired mouse! Rtings provides full detailed reviews of the capabilities, and this mouse rates as one of the fastest responding mice that is available. I use the adhesive grips, and the mouse is easy to hold onto and use for hours.</t>
+          <t>Bought this controller to replace another with a drifting joystick but unfortunately this renewed one's right trigger sensor does not zero out--even after a firmware update and calibration. The left trigger's button signal is always in the "on" state too and can only be turned off by spamming the right bumper; definitely didn't expect this from a tested renewed product. The packaging is also sparse with only one very loose piece of paper wading so I'm now doubtful on the QA of the Amazon's renewed store. I'm giving it 2 starts for being cosmetically fine and having an included long cable but since this controller was only a couple dollars less than brand new controllers from Sony, I suggest safely buying from the official Sony amazon page instead.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['Appearance', 'Clicking', 'Quality', 'Adhesion', 'Weight', 'Value']</t>
+          <t>['Cleanliness', 'Value', 'Quality', 'Appearance']</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Improves accuracy</t>
+          <t>Defective controller</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>09 October 2023</t>
+          <t>10 March 2024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Very good quality mouse. Comes with grips in the box. Software is needed for getting the most out of the mouse, but most do these days from all companies. I’ve enjoyed this mouse a lot for the last few months. It’s made my accuracy better and getting it during a sale was icing on the cake. Highly recommended.</t>
+          <t>The right analog stick on the controller is very buggy and does not work most of the time.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2133,31 +2146,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Awesome look, feel, and build!</t>
+          <t>Kinda works.</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>25 September 2023</t>
+          <t>28 December 2023</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Very friendly shape for my palm/claw grip, super light, great build quality. The texture was not slippery at all for me. The scroll wheel feels great, with very distinct steps. The white and blue colorway is really nice for my setup. I did switch the skates for some Corepads to make it perfect, although now I do hear a slight rattle from very vigorous shaking (only after I changed the skates, I don't know if it's related but wasn't there before). I'm upgrading from a Logitech G305 (hated the double-clicks), so I wanted to stay away from Logitech, including the Superlight. I tried Razer Viper V2 Pro (hand cramps after long sessions of pincer claw), and Razer Deathadder V3 Pro (ergo shape too sluggish for me), before settling for this mouse (hopefully the mechanical switches won't double click). Highly recommend!</t>
+          <t>Kinda works. But only on certain games. The controller won’t update.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['Quality', 'Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2167,109 +2180,109 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Amazed</t>
+          <t>Sticky buttons and touch pad</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>23 September 2023</t>
+          <t>01 November 2023</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Previous razer user and this is now literally the best mouse for me. wonderful wireless experience and light as a feather.</t>
+          <t>When I purchased this I guess I didn't realize it was refurbished.. it feels refurbished and some of the buttons stick.. and the touchpad doesn't click in on the right side all the way.. so far it works other than some of the buttons sticking in for a second but it feels like it just going to get worse over time I gave it 2 stars because they at least gave me a long charging cable but it's still really poorly refurbished</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>W Mouse, W Amazon!!</t>
+          <t>Buttons does not work.</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21 September 2023</t>
+          <t>31 August 2023</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>I love everything about this mouse! Very well made, the skates are alright could probably use an upgrade there. I came from a Pulsefire Haste, and this mouse is much much better in terms of tracking despite being wireless. I ordered another mouse from another brand and had trouble with the 2.4ghz disconnecting randomly, sent it back and ordered this one and have had 0 issues! Just buy it already! Oh, and I bought open box from Amazon Warehouse and it was a 5/5 experience. Came with all accessories and mouse was brand new looking. No scuffs on the skates even but they had been installed. Battery life lasts me about 3-4 days with RGB on 10%.</t>
+          <t>Everything was fine until you hook the controller up to your console or PC. The X and Square Buttons do not work and things like that should have been tested before shipping off to a customer.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['Quality', 'Value']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>Left toggle (L3) won’t stay neutral</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31 August 2023</t>
+          <t>08 July 2023</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Works great easy to maneuver</t>
+          <t>Controller automatically Leigh’s to pull to the left.  In Diablo 4 my character will automatically start to walk left, in call of duty it screws up my sniper aim because it does not stay neutral.  Bad refurbished controller.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Don’t need a trap for this mouse!</t>
+          <t>Jitter problem</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>24 August 2023</t>
+          <t>02 July 2023</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Perfect weight and size. The Omni dongle to connect with my rog 96% keyboard works flawless! So fast and precise. I’ve retired all my other mice thanks to this one.</t>
+          <t>I've had the controller for less than a week and it already has a jitter problem. Everything else works perfectly fine.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2279,53 +2292,53 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Almost invisible in my hand</t>
+          <t>Experiencing stick drift just under 1yr after purchase</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15 August 2023</t>
+          <t>09 June 2023</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>This is the best gaming mouse I have ever owned. The responsiveness is great and the light weight has actually caused me some over control in some of my favorite games. It took a little getting used to but I'm really happy now that I can really get the fine control other mice have failed to give me. Now if I can get my reaction time to be faster, I might win a few more games!</t>
+          <t>I bought this PS5 controller in June, 2022.  I am writing this review on June 9th, 2023.  Last night the controller began stick-drifting and it's really annoying to the point of not being able to use it.  The controller has been well-kept and worked fine until last night.  I just wanted to come back here and make mention of it.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['Weight']</t>
+          <t>['Easeofuse', 'Cleanliness', 'Value', 'Appearance']</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Super light</t>
+          <t>Do not recommend</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>19 July 2023</t>
+          <t>30 December 2022</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>First thing you notice taking it out of the box is how light it is. Very generic shape, I like the grip tape that comes in the box, it gives it a rubbery feeling. Would recommend for anyone interested in a super light wireless mouse, it has Bluetooth too.</t>
+          <t>2 stars because looks like new but R2 button stacked in a week</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2335,25 +2348,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Amazing mouse</t>
+          <t>Appears to be used. Will follow up when it is opened at Christmas</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>19 July 2023</t>
+          <t>04 December 2022</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Picked this up for $85 on Prime day and it really is an excellent mouse for the price if they can keep it in the $85-99 price range. I think its the best FPS/shooter mouse on the market atm. It is a pleasure to use. The included grip tape is a nice touch.</t>
+          <t>The box appears to have been opened. I will follow up after it is opened for Christmas</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Easeofuse', 'Appearance']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2363,48 +2376,48 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Excellent Product and packaging</t>
+          <t>Dirty</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>19 July 2023</t>
+          <t>14 July 2022</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>I used to use Logitech g pro x superlight but since this arrived i improved in gaming and my aim was more precise. Also the shipping was so fast and the package box included same items like in the description. Firmware update worked also through armoury crate.I recommend this seller! Thank you for the best gaming mouse ive ever had!</t>
+          <t>First of all Controller is working well, but it arrived with major signs of use. It was dirty and took me time for cleaning it.I know that I bought renewed one, and it was ok from me, that box was damaged too, but for dirty item I can not write good review</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['Quality', 'Weight', 'Appearance', 'Comfort']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Great mouse</t>
+          <t>It was extremely dirty</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17 July 2023</t>
+          <t>13 April 2024</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The mouse overall is great value for it's price. I have many different mouses including the GPX, Finalmouse, and pulsar x2 and the ROG has been my main mouse since I received it.Pros:-54 gram (really light)-very comfortable shape for all types of users (palm grip, fingertip grip, etc)-good sensor-bluetooth, 2.4hz dongle-usb-c charging (not micro-usb)-good mouse skates-comes with grip tapeCons:-the clicks are stiff compare the competition-the software is very lackluster</t>
+          <t>I’ve seen a lot of bad reviews, others good, so I gave it the benefit of the doubt. It came extremely dirty. I had to douse it in Lysol and scrub it down from the grime build up. I have yet to find out if the controller has any analog drift or would even care to charge. Don’t buy this unless you want to gamble with your money and chances of getting an A.O.K controller. Just buy a 100 dollar brand new</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2413,31 +2426,31 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>My new main</t>
+          <t>Almost "New"</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12 July 2023</t>
+          <t>12 March 2024</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>beats viper v2 and Gpro superlightX</t>
+          <t>The PS5 controller, a solid option for a high price. This listing seems like you would receive a new controller in the standard box, however in reality it is a "new" refurbished controller. The face buttons felt used as there isn't much of a click when you press them. Aside from that, few to no problems, so it doesn't fail on that part. Just an unfortunate case of misleading labels.Edit: The controller is already broken after normal usage. Pressed in L1 button. I would suggest avoiding this offer!</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Value', 'Appearance', 'Cleanliness']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2447,25 +2460,25 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Great Mouse for FPS</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>05 July 2023</t>
+          <t>27 November 2023</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No complaints from me for this mouse. I was in the market for a new mouse and was looking for something that was going to be wireless. I was between 3 mice and rolled the dice on this one with it still being fairly new with minimal reviews on it compared to its competition.I couldn't be happier with the results the only downside I've found is wear and tear on the grips, but I'm sure this is a me issue with over use.  (The mouse did not need the grips, I just added them on to try them out)</t>
+          <t>It nice but it usey boyfriend loves it</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2475,20 +2488,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>awesome mouse!</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>04 July 2023</t>
+          <t>14 October 2023</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>I wouldn't ever pay $150 for a mouse but when you can catch this sucker on sale for $99 it is a no brainer.The current best mouse tech is in this mouse with lower than 4k latency and you got yourself a banger.</t>
+          <t>It works but wouldn’t advise getting one on amazon it has so many button glitches and you have to blue tooth connect them to yo ps5.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2497,31 +2510,31 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Great mouse</t>
+          <t>As advertised</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11 June 2023</t>
+          <t>17 May 2023</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>i love this mouse but its pretty expensive because i bought it for 150$ but its reallllllllllly good</t>
+          <t>Came on time with no issues</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -2531,25 +2544,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Meant for the true one</t>
+          <t>Stick drift was immediately a problem.</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>07 June 2023</t>
+          <t>26 November 2022</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Unreal shape and size</t>
+          <t>I bought the controller because I needed an older gen, so I could attach back paddles(bdm-010 or bdm-020). I assumed a renewed version would likely be an older controller. I was extremely happy when it came and was a BDM-020.. I immediately attached the paddles and for about an hour everything worked great - after an hour I got heavy stick drift from the left stick...I'll still try to use it, and I'm very happy with the shipping, but for the price, I thought this would last me a bit longer without problems.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['Value', 'Quality', 'Buttons']</t>
+          <t>['Cleanliness', 'Appearance']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -2559,20 +2572,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Alta presicion, ligero y de gran galidad</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>05 June 2023</t>
+          <t>01 October 2023</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>es un muy buen producto, se adapta a mis necesidades y es lo que esperaba</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2587,81 +2600,81 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>You need to get this mouse</t>
+          <t>All right</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31 May 2023</t>
+          <t>13 August 2023</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-Solid build quality and the weight is perfect-Mouse skates glide smoothly and there are also extra skates included-No pre or post travel-Side buttons do not feel mushy-I would recommend using the grip tapes if your hand gets sweaty-Shape-wise, this feels very similar to the GPX Superlight, but slightly higher hump at the rear. I personally prefer this shape. The coating is a noticeable difference between these two.DO NOT DOWNLOAD ARMORY CRATE. This software is a pain to use, and can end up doing harm to your computer. IT IS NOT NEEDED.I was worried about having to download this in order to use the mouse properly, however, the manual has a guide of all hot keys and combinations you can press on the mouse that can adjust the RGB, DPI, etc. If you do this option, there is no way to turn off the RGB unless you download Armory Crate. (ASUS has advertised the mouse to have a 79hr battery life with default RGB on and 90+ hours being off - I have it set to breathing).At the time of this review the mouse is priced at $99. If you can get it at this price this is amazing value. I would still pay full price with what ASUS and Aim Lab has brought to the table though. Great mouse!</t>
+          <t>The controller was all dirty had food crumbs on it works well clean be for use</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['Value', 'Quality']</t>
+          <t>['Cleanliness']</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Best Claw Grip Mouse No Contest</t>
+          <t>Bad wiring</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>26 May 2023</t>
+          <t>09 July 2023</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>I’ve had a ton of expensive gaming mice thanks to hardwareswap and mousereview. I’ve tried a ton of shapes and was maining the Kone Pro Air. I’ve tried so many Logi and Razer mouse and nothing comes close to this. Clicks are super crispy especially the side buttons, scroll wheel is tactile and 54g makes gaming and work feel great.I did not nor do I plan on installing the software, so I play on 1600 DPI and after playing around in Aim Lab the scroll wheel RGB is breathing the same color as the side buttons. Just buy it man!One piece of advice is definitely use the grip tape for the sides cuz it is slippery!</t>
+          <t>One thing I disliked is that the analog stick was doing the same thing as the left trigger</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['Clicking', 'Weight', 'Value', 'Buttons', 'Comfort', 'Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Great mouse!</t>
+          <t>Works fine</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>09 May 2023</t>
+          <t>28 April 2023</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Simply like it</t>
+          <t>This was a little dirty when I received it. But after cleaning it, it was fine. Works as expected.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -2671,25 +2684,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Could have been GREAT!!!!!</t>
+          <t>Like new!</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16 April 2023</t>
+          <t>10 December 2022</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>It’s a confused hybrid Logitech GPX, Pulsar X2, Viper Ultimate, Death Adder mashup mouse that is great if you’re a mouse newbie with large hands but all over the place if you don’t. The M1 and 2 could have been longer and the hump could have been brought down and less “peaked”. The flared M1 and M2 are good. The booty of the mouse could be more pronounced and bam amazing RBG mouse that’s lightweight. The M3 and M4 are almost perfect. The scroll wheel press could be a little easier to push but the ladder feel scroll is on point. Please do some more testing with actual mainstream players not streamers and get feedback from people who use the GPX as their daily driver as I think this was a monster mash input case.</t>
+          <t>I was pleased to buy a refurbished control that works like new. Only downside was that it didn’t come in it’s original box.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Clicking', 'Value', 'Weight', 'Quality']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2699,55 +2712,53 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Perfect mouse for gaming!</t>
+          <t>Still broken</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14 April 2023</t>
+          <t>23 September 2022</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>The media could not be loaded.
-I’ll say this mouse is one of the best options available on the market. The weight is so light that it helps both gaming and daily use. I can easily carry it anywhere. It’s good to work with AimLab to develop this mouse and the software did give me some clues to adjust my mouse setting. I love how the buttons are a little bit firmer than other mice. This way I know I won't accidentally mis click when gaming. Additional PTFE mouse feet and grip tape are included which allows a certain level of modification. I would say that this mouse is on the same level of Logitech superlight and Razer deathadder so you should consider this one if you want a light mouse with good performance.</t>
+          <t>Controller is still broken even though it was “refurbished” the charging wire would feel loose and fall out sometimes. buttons kinda stick and it does extremely fast. I only haven’t returned it because the nearest return center in my area is now so far away I literally couldn’t get there by train easily</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Value', 'Cleanliness', 'Appearance', 'Easeofuse']</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>The Perfect Mouse!</t>
+          <t>I like it so far.</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>07 April 2023</t>
+          <t>04 June 2022</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>The media could not be loaded.
-I've tried some pretty incredible mice, but this one has seriously helped me get better. Aiming with this mouse feels amazingly accurate! Coming from the Razer Deathadder V3 Faker edition with the 4K hz polling rate. I didn't have the upmost confidence that this mouse would impress me to the point of becoming my new main over the new Deathadder, but for me it's not even a contest. Honestly when I first started using the mouse I did not like the texture of the finish they used. I just couldn't seem to find my proper grip and I also was not impressed with the stock feet. Not wanting to return the mouse because I decided I'd keep it as a collector, I went ahead and went all out and replaced the stock front feet with the bigger pfe feet included with the packaging.  I also installed the included grip tape on to the mouse as well... when I tell you after making these mods it felt as if I were using an ENTIRELY different mouse compared to my initial use. The mouse all of a sudden felt like a glove for my finger tip/claw grip style. The grip tape seriously made the mouse feel like I was connected with it rather than it feeling like I was holding an oddly surfaced object. Replacing the front skates made the mouse feel much more precise when aiming. The mods only added on 4 grams as well; So the mouse felt even more like an extension of my hand due to it's light weight with the added grip. I've heard Boardzy complain about the the L mouse click being too stiff. Totally disagree. It's enough pressure to avoid a misclick, but still super spamable. My only gripe is the AWFUL software. Armory Crate is trash. I should not had to download a multi-Gigabyte sized app software to use the mouse. Also the software is very intrusive [do your research]. Other than that thus mouse is seriously so under-rated that it's ridiculous. The fact that it made me switch from my Deathadder so quickly and so easily is quite the statement.  My advice to anyone looking for a premium ergo mouse, I'd HIGHLY recommend purchasing this mouse and customizing it with the included add-ons until you find the perfect fit. HIGHLY RECCOMEND!</t>
+          <t>I would recommend this controller.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Clicking', 'Appearance', 'Adhesion', 'Value', 'Quality', 'Buttons', 'Comfort']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -2757,7 +2768,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>One of the best mouse I have ever used</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2765,17 +2776,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>05 April 2023</t>
+          <t>02 April 2024</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>I bought this mouse because I was curious and wanted try out a lighter mouse (coming from using mice like the G502), this was an awesome experience.  I now understand why the pros prefer lighter mice, and this one is phenomenal.I love the shape, weight and performance of it, it really is awesome.  The only complaint I have is the side buttons, they are not black (they are blue).  The blue color does not match the rest of my PC setup.I recommend this mouse to anyone.  ASUS, please release an black version of this mouse.</t>
+          <t>So far so good. Connecting now to use</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Weight']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -2785,7 +2796,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Light weight &amp; attractive</t>
+          <t>10/10</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2793,17 +2804,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>05 April 2023</t>
+          <t>31 March 2024</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mouse is very light and the grip tape is a nice touch. ROG makes some fantastic products.</t>
+          <t>Came with a 10-ft charging cord. quick shipping</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -2813,7 +2824,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>This mouse fits me like a glove.</t>
+          <t>Works!</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2821,17 +2832,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>02 April 2023</t>
+          <t>30 March 2024</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>So I’m a mouse collector. I know silly but I love getting a new mouse every 2-3 months. This is my most recent mouse in my collection. Basically this is my daily mouse cause it fits perfect for my palm grip style. Buttons do take a little more push to get the to register  but I love that. My DeathAdder v3 pro I use to Miss click all the time cause how light they are. Flicks no issues for me lightweight and very responsive. The armour software needs to be reworked with all the extra unnecessary stuff. All in all love this mouse and I feel the price is fine cause of it’s light weight and how responsive it is. Well done asus. Also aim labs is a cool touch but I don’t really use it.</t>
+          <t>It does what it supposed to do. It is also very durable. I like the fact that it came with a charger cord.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['Weight', 'Clicking', 'Value', 'Buttons', 'Quality', 'Adhesion', 'Appearance']</t>
+          <t>['Value', 'Quality']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -2841,7 +2852,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Replacement for logitech mouse</t>
+          <t>As described just as good as new if you get the right one</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2849,17 +2860,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>31 March 2023</t>
+          <t>27 March 2024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>If you like the logitech superlight or any 54g mouse you like this as well.</t>
+          <t>As described great deal just as good as new, I tore it down and checked and the battery was new and it looked like the inside had been cleaned</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['Clicking']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -2869,7 +2880,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Feels like butter</t>
+          <t>Perfect</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2877,17 +2888,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>18 March 2023</t>
+          <t>23 March 2024</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Title sums it up</t>
+          <t>I absolutely love it!!!!</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['Clicking', 'Adhesion']</t>
+          <t>['Easeofuse']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -2897,7 +2908,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>One of the best choices in 2023</t>
+          <t>Ps5</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2905,12 +2916,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>18 March 2023</t>
+          <t>05 March 2024</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Really worth the price. 54g is light enough</t>
+          <t>Bought this set for my ps5 and works amazing</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2925,7 +2936,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Aim Assist for FPS Gaming</t>
+          <t>Came exactly how it was described</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2933,17 +2944,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>13 March 2023</t>
+          <t>05 March 2024</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>A pure Keyboard and Mouse users dream, use it with the Aimlabs software and it’s perfect. If you have a hard time find your perfect mouse settings this is the mouse you need, and it’s great for larger hands without sacrificing weight and speed</t>
+          <t>If I will be needed another controller I will be buying from them again. Works well and it is in almost perfect condition cosmetic wise</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -2953,7 +2964,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Perfect alternative to the G Pro Superlight!</t>
+          <t>Awesome!</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2961,17 +2972,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12 March 2023</t>
+          <t>05 March 2024</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The mouse matches up nicely to my Asus motherboard and other RGB peripherals that it controls. As the headline states, this is a perfect alternative to the G Pro Superlight as I prefer the materials that Asus used on this mouse. I also get Bluetooth, so I can sync up to my secondary system along my main. I feel like they one upped in every way.</t>
+          <t>This controller paired super easily and was already partially charged. Updated perfectly and now I'm ready to play. Thanks for having an awesome product!</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['Clicking', 'Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -2979,90 +2990,926 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>21 February 2024</t>
+          <t>05 March 2024</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rápido, cómodo, caro nose si valga el precio pero no decepciona en nada, llegó bien protegido y lo mejor es que el producto es 100% original</t>
+          <t>Came on time works great my son loves it 👍🏽</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>07 February 2024</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>My son is happy with it</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>['Cleanliness', 'Value']</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Works great</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>05 February 2024</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>👍</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>['Value']</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ps5 remote</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>02 February 2024</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Remote exactly what was advertized</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>['Easeofuse']</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>It’s good</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>05 January 2024</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Para mi es el mouse perfecto.</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>['Clicking']</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>05 January 2024</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>The mouse is a bit small on my hands but works well after adapting to it. Although the asus armory crate drivers are sometimes just as bad as razer synapse</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>['Weight']</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>It’s good</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Works perfectly fine</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>15 December 2023</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Product works fine.  Played right out of the box and takes charge rapidly.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>['Cleanliness', 'Value', 'Easeofuse']</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>That’s nice</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13 December 2023</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>I gift to my friend for his birthday</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Impresionada si o si ... excelente 👌</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>29 November 2023</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Un regalo para mi hijo. Buena calidad. 👍 un servicio diría yo con un buen sentido de urgencia  me encanto como trabajan .</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>20 November 2023</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Works good</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>16 September 2023</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>stick works good and is new :)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>My Son loves ❤️ it!!!</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>15 September 2023</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Title says it all!!!</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>30 August 2023</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>It's good</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>So far so good. At least it's no drifting!!</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>['Quality']</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Came three days earlier than expected</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>26 August 2023</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>I bought it to use with the PS5 since it only comes with one controller</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>['Easeofuse']</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Good controller</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>28 July 2023</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>I got a used product. It arrived unwrapped and a bit dirty. There were some scratches, and some gunk on the handle and in the crevices, but the performance was good. I suppose someone played with it a lot before returning it. All is to be expected.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>['Quality', 'Value', 'Appearance']</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>It is as described, works great, arrived quickly.</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>27 July 2023</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>I am happy with my purchase of this extra controller for my PS5, worked instantly. Definitely worth the discounted price. Very pleased.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Like brand new</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>11 July 2023</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Just got my controller a week ago and i had been using it since.I can’t believe how affordable and how good the quality is. Everything works perfectly.Can’t even think of a negative review about this item.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Works perfectly</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>22 June 2023</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Great controller</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>It’s amazingly resistant</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>08 June 2023</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>The item has been of good use, so far I’ve used it for almost a month and it’s very resistant to impact due to it being dropped twice and it’s still strong.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>It works with no drift</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>01 May 2023</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>It does what it needs to do without fail</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>It’s super</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>22 March 2023</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>My husband prefers this controller over the white one… only cauz it’s extraordinary color.  Works excellent, comfortable in our hands, buttons are not sloppy nor difficult to press. A must have… in this color. 😊</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Works great</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>01 March 2023</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Had to get this controller after I broke my boyfriends and it’s a great controller!! I usually have trouble when ordering controllers off this site but not with this one!! 10/10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>['Easeofuse', 'Value', 'Cleanliness', 'Appearance']</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Great quality</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>14 January 2023</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Purchased for my husband as a Christmas gift and he loves it.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>['Value', 'Easeofuse', 'Appearance']</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Thank you</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>09 January 2023</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Just what I needed</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Great product!</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>29 November 2022</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>I purchased this a few months ago, so far I haven’t had any issues with it! I’m very pleased.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>['Value', 'Easeofuse', 'Appearance']</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Satisfied</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>11 September 2022</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Package arrived before time which was cool. Works just like new and looks it too. I'm a satisfied customer</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>['Appearance']</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Renewed was perfectly new!</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>04 September 2022</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>I was lucky enough to finally find a PS5.  I needed a second controller, so where do we go???  Amazon, of course.  I saw this and wanted my Orlando City Purple.  It was cheaper than the factory new but I noticed it carried a guarantee of quality.  I tried it and it works perfectly.  I could never have told the difference between this one and the one I got with the console except for the color.  Recommended - save the money and go for the Renewed model!</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>['Cleanliness', 'Quality', 'Value']</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Great controller</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>12 April 2022</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>My son loves this and loves the color</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Love the controller hate how it was delivered…</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>29 December 2021</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>The product was great… The fact that it was put in the mailbox and not to the door is what had me concerned with the amount of packages being stolen…</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Happy!</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>11 December 2021</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Bought the black one. A red one was sent but seller took care of the exchange. Love my new black remote. Also have it in white.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>A+++</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>08 December 2021</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>A+++</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>['Easeofuse']</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Looks great, feels great.</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>07 November 2021</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Exactly what you’d expect for a black dual sense. Looks very nice, and a has a PS feel with the black controller and the blue/white LED lights.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>['Easeofuse']</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Very satisfied</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>28 September 2021</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Got what we ordered. Nothing wrong with it. Just a few scratches for being a used controller. Satisfied</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>['Easeofuse']</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Red is Cool!!</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>28 September 2021</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Just came in today and I really like it. Was surprised it was fully charged. Thank you!! Really needed this!!</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/scrapping/amazon_reviews.xlsx
+++ b/scrapping/amazon_reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Trash and broke</t>
+          <t>Perfect so far ***update, it broke***</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,27 +476,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16 April 2024</t>
+          <t>30 March 2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>I disliked how this company or person sold this controller to people saying it was clean and not dirty and was brand new, no its not!! I'm never ever BUYING FROM  HERE AGAIN</t>
+          <t>It was perfect... for ten days. Then, in the middle of a game, the left joystick stopped working. It feels like the springs or gears inside just snapped.Feels good. Responsive buttons. The charging port is a C which is fine, but it's kinda hard to plug in... Like it's almost too tight. Other than that it functions perfectly. FYI, only had it for a week so far. Curious to see how it holds up over time.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Need to double check your items</t>
+          <t>Don’t buy</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -504,17 +504,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15 April 2024</t>
+          <t>29 March 2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>I ordered this to give amazon refurbished items and I was very disappointed. I plugged it into my system and right away it was stuck like the left arrow was pushed constantly. I tried to basic troubleshooting steps with no luck so needless to say I'm not going to waste any more time and return this controller.</t>
+          <t>Controller light is stuck on after two months of use and won’t do anything</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Batterylife']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -524,7 +524,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Useless. Wouldn’t pair *or* play wired on a gaming laptop…</t>
+          <t>Buttons don’t work!</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -532,27 +532,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14 April 2024</t>
+          <t>24 March 2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Out of the box I charged it for a few hours to be sure it was working. It did arrive in good conditionI tried so many fixes to make this work despite it being for a new gaming laptop. It will blink like it’s in pair mode but nothing happens. Checked my drivers, did admin scans, everything I could search to troubleshoot. But my laptop (&amp; phone) would not discover this controller at all, I wonder if it was even tested on PC &amp; PS before being listed. Plugging it in via the usb my laptop registers it solely as an audio device not a controller &amp; I couldn’t change it.At first I initiated a replacement until I realized I could get a new licensed Genshin Impact controller for less money &amp; no headaches. I wanted to love this &amp; go refurbished to put less plastic in circulation but if they send out “new” items like this how long will anything I get that does work last before it breaks too?</t>
+          <t>I received the first one, the r1 trigger didn’t work. They sent me a new one the next day, the x button didn’t work. I would not recommend this item I just had to return both of them…</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dañado</t>
+          <t>Garbage</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -560,28 +560,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11 April 2024</t>
+          <t>24 March 2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The media could not be loaded.
-No me funciona el botón (cuadro)</t>
+          <t>Got it 2 months ago and its already in the e-waste bin. X and O buttons lost all bounce back and would get stuck in the down/engaged position. 2 MONTHS... would've gave it no stars if possible. smh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Stick drift included (dont buy)</t>
+          <t>Audio jack problems</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,28 +588,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11 April 2024</t>
+          <t>15 March 2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The media could not be loaded.
-The stick drift is soo bad tht they shouldnt even sell these controllers like i ca barely even use the controller</t>
+          <t>Feels great to hold. Paired really nicely with my ps4. Plugged in my headphones and no one can hear me. Appear to be great off brand phones, but not if you want to talk to people. Plan on returning them.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Same price as a new one</t>
+          <t>Won’t stay connected</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -618,27 +616,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08 April 2024</t>
+          <t>11 March 2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>I buy it because I thought I was going to be fine with but I change my mind I can't buy a new one for the same price..</t>
+          <t>Won’t stay connected for longer than a couple of minutes. Wish I had purchased one of the many, many other options. Feels nice, but a piece of junk. Don’t buy!</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['Value', 'Appearance']</t>
+          <t>['Connectivity']</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I'm not putting in</t>
+          <t>Looks good</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -646,27 +644,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30 March 2024</t>
+          <t>24 February 2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>As soon as I tried playing with it the controller was sticking or broke cuz the right analog stick is sticking and some the buttons</t>
+          <t>No longer works</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Buttons', 'Connectivity']</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dead controller</t>
+          <t>bad but not terrible</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -674,17 +672,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24 March 2024</t>
+          <t>15 February 2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>I bought this thinking that’s a good price for a controller read some reviews but come to find out I can’t even use it cause it’s dead out of the box. Won’t charge, tried changing the batteries from another controller but no it has a dead motherboard. And yall say it’s refurbished no it’s not don’t waste y’all’s money.</t>
+          <t>the joysticks were not smooth at all, the left one barley works. the audio jack also doesnt work, only good thing was that it felt comfortable</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -694,7 +692,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bad product</t>
+          <t>doesn't link up to ps4</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -702,27 +700,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21 March 2024</t>
+          <t>13 February 2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The controller came with stick drift</t>
+          <t>First off the build quality is great. However after doing what the instruction say of first time pairing it with the cable it doesn't pair...nor do I see the controller on my bluetooth devices.. as of right now this controller is a brick on my desk..I would NOT recommend buying this. If the manufacturer/seller reaches out to me and I can get this issue resolved will 5 star this controller cause I love the build quality the feel of the controller. Till then it's a 1 star</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Used controller</t>
+          <t>Not a good purchase.</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -730,17 +728,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16 March 2024</t>
+          <t>28 January 2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>I thought was buying new but no! Controller came with no cord to plug into ps.</t>
+          <t>My son mentioned the controller is slow and lags. The quality is cheap and not worth purchasing.  Too many disadvantages. We are returning it.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -750,7 +748,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Broken start button</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -758,17 +756,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13 March 2024</t>
+          <t>16 January 2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Controller had an overall “ugh someone’s hand gunk is on this” feel and the start button would not work at all</t>
+          <t>after one year the battery life is barely averaging over one hour.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Grip']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -778,7 +776,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Never by used</t>
+          <t>Got for my son for Christmas and doesn't work right</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -786,17 +784,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>27 February 2024</t>
+          <t>28 December 2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Never buy anything used it came very dirty, sticky and one of the buttons doesn’t work. Better buy a new for 200 then 176 that is not functional and very gross because it was used. Don’t be cheap</t>
+          <t>Just opened and hooked up button suck and continuously scrolls no way to stop it. Very disappointed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['Appearance', 'Easeofuse', 'Cleanliness']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -806,7 +804,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Horrible stick drift</t>
+          <t>Microphone doesn't work</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -814,27 +812,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21 February 2024</t>
+          <t>11 December 2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Was supposed to be in almost new condition and fully refurbished, came dirty and with almost unbearable stick drift</t>
+          <t>I recently purchased this controller, and it feels nice. The joysticks feel good, buttons work well although it doesn't have a back light like an official PS4 controller would. No biggie.My real problem with this product is no microphone capability. I have been trying to plug in my headset and it just appear to be microphone compatible. That's a big part of gaming these days so I'm very disappointed. If I had known thus I would not have bought this product!</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STICK DRIFT!!!</t>
+          <t>Hard to connect to my game system</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -842,17 +840,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17 February 2024</t>
+          <t>24 November 2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>My controller had stick drift after one hour of gameplay so yeah I’m pissed paid 80$ for overnight shipping and this is what I get??? Nah fam run my money back please</t>
+          <t>For some reason it does not want to connect to my system. Still trying to figure it out. Will update when and if it happens.Update :12/26/23Tried multiple times and it still will not connect to my system. No one has contacted me about the issue either.My advise, buy a real dual shock and leave these crap ones alone. Waste of money time and really pisses me off!!!</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Easeofuse', 'Cleanliness']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -862,7 +860,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bad quality close to retail price</t>
+          <t>Horrible product.</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -870,17 +868,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16 February 2024</t>
+          <t>30 August 2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>I was disappointed price is very close to retail it’s in a plastic bag not even in a box. I  bought this one by mistake, thinking it was not renewed and it was original, but I tried to instead keep it but later, finding bumps and scratches. The triggers on both sides The colors didn’t match the seams on the controller had gaps it almost looked like an aftermarket controller.</t>
+          <t>I recieved the product, and unboxed it. It worked fine until it didn't only 2 hours into use when it died and I charged it. now it refuses to pair via Bluetooth, and does not work properly with my system. I cannot get the connection to stay on via USB or via Bluetooth. the product is a Chinese scam.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Quality', 'Value', 'Cleanliness', 'Appearance']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -890,7 +888,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terrible</t>
+          <t>Won't stay connected to play station</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -898,17 +896,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14 February 2024</t>
+          <t>21 August 2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>I went ahead and ordered this controller and was actually kind of excited but by the time it finally got here I wasn’t happy at all!! The controller was scuffed and had stains from heavy heavy use and better yet it would not start, it would not charge it wouldn’t even blink!!! 110% will not purchase this again from them!!</t>
+          <t>Only have this controller for not even a full month and it will not hold a connection.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -918,7 +916,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Didn't last</t>
+          <t>Controller doesn’t work</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -926,12 +924,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13 February 2024</t>
+          <t>29 July 2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Went bad 6 months after purchasing smh</t>
+          <t>Several functions of the controller will not work.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -946,7 +944,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Didn't work for long</t>
+          <t>Will not connect to PS4</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -954,17 +952,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07 February 2024</t>
+          <t>22 May 2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Worked for only about 3 months before stick lag became an issue and got so bad you couldn't use it at all. Characters would be stuck permanently running one way, no matter the game.  Tried everything to trouble shoot it at home.  Wish I got the warrantee.</t>
+          <t>Tried everything and it will not connect.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['Appearance', 'Easeofuse', 'Quality']</t>
+          <t>['Connectivity']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -972,27 +970,21 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rip off</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>27 January 2024</t>
+          <t>26 March 2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>This controller came broken. It pushes buttons and scrolls on its own, the seller basically steals your money and gives you garbage in return.</t>
+          <t>1. Product came defective with L1 sticking and no spring right off the bat. Have to return. Other cons:2. It has no speaker so games that use controller speaker for audio only hear part of conversation. Other part have to read the captioning.3. Won’t work on controller recharging dock. Holes are different than OEM.4. Light is on top of controller so it is in your eyes, a bit distracting if playing in the dark.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Batterylife']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1000,27 +992,21 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HORRIBLE STICK DRIFT</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>24 January 2024</t>
+          <t>26 March 2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Received this as a birthday gift after the controller included with my console developed stick drift. Less than 6th months later, it had stick drift worse than the other one.Then Sony makes a controller that doesn't easily develop stick drift and wants to charge $200 for what should be standard quality</t>
+          <t>Had this controller for about a month. Suddenly it won’t hold charge anymore.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1028,22 +1014,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Damaged &amp; wrong color</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20 January 2024</t>
+          <t>03 March 2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>They sent the wrong color and the left joystick was malfunctioning.</t>
+          <t>No longer works grandsons are pretty disappointed.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1056,27 +1036,21 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Stick Drift</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>25 December 2023</t>
+          <t>22 February 2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>I got it and thought it was going to be brand new but there is a stain on it and the stick drift is absolutely horrible. Would not recommend at all. I have to return it</t>
+          <t>Trash. Do not buy. Controller is super laggy, and delayed inputs happen on-screen. Terrible for fighting games, racing games, basically all games. Wouldn't recommend to a dead relative. WASTE OF MONEY</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Grip']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1084,27 +1058,21 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>No good!</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16 December 2023</t>
+          <t>20 February 2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Controller has drift. Constantly pulls left. Worthless. Should have bought new.</t>
+          <t>I do not recommend this controller if you are going to use a headset it does not work with a headset at all</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1112,27 +1080,21 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Don't purchase refurbished/renewed</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04 December 2023</t>
+          <t>12 February 2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Received with broken non functioning buttons</t>
+          <t>Controller becomes faulty after a month. Amazon nor the buyer cares whatsoever. Shocked how you can sell crap on amazon and get away with it. Avoid if you're smart, these buyers have ways to inflate reviews so you can get convinced to buy it, unfortunately like myself.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality', 'Comfort', 'Value', 'Appearance', 'Connectivity']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1140,27 +1102,21 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Waste of money</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12 November 2023</t>
+          <t>05 February 2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Since I bought this I'be nothing but problems. The lect paddle internals broke so I went and sent to sony for repair. They sent it back a month later it was either a refurb controller or the same one but the same left paddle internas broke again. Rather then dealvwith thechassle again i attemoted tobrepair myself. It's garbage and the right joystick has serious drift after maybe a 100hrs use. Probably by design so you buy a new module. It's basically a 200 dollar paperweight.</t>
+          <t>Saw the good reviews and figured it would be a good purchase. But the remote doesn’t connect at all and it didn’t come with a wire either. disappointed:/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1168,28 +1124,22 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Terrible controller</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>25 October 2023</t>
+          <t>31 January 2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>The media could not be loaded.
-I bought this controller because my other one had stick drift how ironic because this one’s stick drift is even worse turn up your volume for the video you can hear the sound it’s makes when you can’t go any farther left on the screen. Overall this is a bad product I read some other reviews and even when they worked some came out dirty horrible product.</t>
+Doesn’t work right. Headphone port is broken off in the controller. Super frustrating. Box came open with missing parts and it doesn’t have a PlayStation 4 charger port so with that being said it’s a no for me.  Food is also stuck in between the controller buttons so this is a return and a huge let down! Don’t buy</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1197,27 +1147,21 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>The d pad is not working</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10 October 2023</t>
+          <t>30 January 2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>This is a defective product. Too much hazle picking it up and returning now.</t>
+          <t>Would not connect to console even after reading instructions provided &amp; then doing research online. Would not recommend to anyone.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Connectivity']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1225,55 +1169,43 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>I would not but it so dont</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08 October 2023</t>
+          <t>12 January 2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>When I got the controller I found out it had a bad stick drift now I can’t even use it without pissing me off</t>
+          <t>Le bouton R2 ne marche pas</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Complete trash</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>07 October 2023</t>
+          <t>13 October 2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>I've only had it for 8 months and play 4 hours a day and the rubber grips are bubbling and the left one has peeled off, also the right analog keeps messing up and when I try to select an item from a item wheel in a game it flickers and won't allow me to select the item.</t>
+          <t>Battery was defective, sometimes did weird things like fast forwarding or rebinding while streaming shows etc</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['Easeofuse', 'Cleanliness']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1283,53 +1215,53 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Won’t hold a charge</t>
+          <t>Nope</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28 September 2023</t>
+          <t>13 April 2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sadly this one won’t hold a charge anymore</t>
+          <t>We got one and the headphone jack didn't work. Gave it the benefit of the doubt and replaced it. Same issue with the new one. Works good if you don't use headphones.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>This is more expensive than buying new, and it had stick drift</t>
+          <t>Defective straight from the box</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28 September 2023</t>
+          <t>17 March 2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Husband bought this by mistake instead of a new controller, which is actually cheaper than this "renewed" one. Has weird stick drift going on so I am going to return it.</t>
+          <t>It connected right away everything was fine until I loaded my game up and noticed severe stick drift to the point the controller is useless</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1339,53 +1271,53 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Drifting after 2 months</t>
+          <t>Wireless function didn't work</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>09 September 2023</t>
+          <t>10 March 2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Video Player is loading.Play VideoPlayMuteCurrent Time 0:00/Duration 0:00Loaded: 0%Stream Type LIVESeek to live, currently behind liveLIVERemaining Time -0:00 1xPlayback RateChaptersChaptersDescriptionsdescriptions off, selectedCaptionscaptions and subtitles off, selectedAudio TrackFullscreenThis is a modal window.</t>
+          <t>Wireless fail. L1 didn't work. It looks great but didn't work properly.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Didn’t work</t>
+          <t>Button functions will automatically register</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>25 August 2023</t>
+          <t>12 August 2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>This is a refurbished controller and still had stick drift. Don’t buy from this seller</t>
+          <t>I don't like the overall feel or size of the controller. I have smaller hands than the average male and thw joy sticks seem to also register when I'm not holding it. The R2 button is the main button that will register when not pressed and while playing Tower of Fantasy, would activate my jetpack. Also the battery life is mediocre at best. Not really liking the durability or the controller to be bluntly honest. I won't even bother to return it because it isn't worth the time or the effort. I like the lightning print on the controller and that blue is a choice of color but that's about it.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1393,22 +1325,16 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Stickdrift</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19 August 2023</t>
+          <t>19 February 2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>It came with stick drift</t>
+          <t>Cursor moves without touching anything, cuts out when not upright and level.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1421,27 +1347,21 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Broke</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31 July 2023</t>
+          <t>18 February 2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Didn't even last a month before I started having problems with it.</t>
+          <t>For the price the controler has an issue with the plug and it is not work well , the port of the controller is loos and it keeps disconecting from my game . I dont recomande.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1449,167 +1369,161 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Controller no good</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>24 July 2023</t>
+          <t>27 November 2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The controls came in defective and it’s been a hassle getting through to seller. I took three days for them to contact me back through email with shipping instructions where they want me to pay for return postage!!  I am very dissapointed</t>
+          <t>Controller feels good and most features work just as well as a DS4 with the exception of the analog L2 &amp; R2. Not sure if it was an issue with my unit or all units are like this, but the L2 &amp; R2 triggers don't really register an input until they're almost half pressed and the control response itself feels kind of off like it's a spike in input.The lack of full trigger control range could be an issue for games that heavily use the full range of the triggers like driving/racing games for accelerating or braking. It's a shame as the sticks and buttons work really well.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Buttons', 'Quality', 'Value', 'Appearance']</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mad stick drift</t>
+          <t>Loved the grip, only lasted 2 months</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18 July 2023</t>
+          <t>16 April 2024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The controller was good at first but now it has bad stick drift</t>
+          <t>Really loved the grips on this controller! I just recently started playing games with my husband and my sweaty hands weren’t making gaming easy, but this controller helped with that! Sadly, after only 2 months of use, the directional pad sticks when pushing up/right and same thing with sticking when pushing x/o. Super bummed as it makes playing games impossible when you have to rely on those buttons.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Grip']</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Refurbished</t>
+          <t>Almost Perfect…..Almost.</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>09 July 2023</t>
+          <t>09 April 2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>I thought I was buying a new controller but it’s just a refurbished controller and the joy stick is already stick drifting less than a week of having it</t>
+          <t>This is a great controller. With one major exception. I play COD and this controller won’t let me ping anything on the map. It’s like it doesn’t recognize that function. Even if I map the ping action to another button it still doesn’t work. Battery life is awesome. The vibrate is kinda weird but you can get used to it. It’s always the same vibration for everything vs the PlayStation controller using different vibrations for different actions. Connection is easy.  Just plug and play. Literally. The pad is hard. It requires a real push vs PlayStation controllers you can just tap it. And the triggers have a bit of play in them. Even with my dead zone at zero they still require a bit of a push to shoot or aim. It’s an ok controller. You get what you paid for. But compared to some other brands this controller is good. I would have given 4 stars but the triggers needing a half squeeze to shoot and the ping action not working were the two stars they missed. Hope this helps.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>not worth the money, at all.</t>
+          <t>time of deliver keeps changing</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>07 July 2023</t>
+          <t>22 February 2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>battery life on this controller is less than an hour, and charging it takes 4 hours.</t>
+          <t>the delivery time will change a lot but its a good item but takes so long to get hear</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Buttons', 'Quality']</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Not very well made</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>06 July 2023</t>
+          <t>20 February 2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Trash!!!</t>
+          <t>Stopped working 3 days after I got it</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Buttons', 'Value']</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stick Drift</t>
+          <t>R2 and right joystick glitch</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02 July 2023</t>
+          <t>02 February 2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>I’ve had my controller for 2 days now and it’s already drifting.</t>
+          <t>R2 and my right joy stick constantly glitch so playing fornite is very hard please send me a new one that works</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Quality', 'Connectivity']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1619,25 +1533,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Literally unusable</t>
+          <t>Looks good but glitchy</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>30 June 2023</t>
+          <t>23 January 2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>I had my 1st controller then it stopped charging, i bought this one and the day i got it, it wouldn’t connect would flash orange or blue and it’d say that it needed to have a usb connection to set it up when it was quite literally plugged in with 3 separate chargers multiple times.  If you want to actually play the game instead of trying to fix your controller, get an xbox instead :)</t>
+          <t>Style is nice but it's very touchy and right joystick and R2 doesn't work sometimes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1647,81 +1561,81 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Never gonna buy refurbished stuff from Amazon</t>
+          <t>Seems cheap</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16 June 2023</t>
+          <t>05 January 2024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>I bought a refurbished ps5 controller and it’s sat in description it works perfectly but when i received it switches not working smoothly especially X it was not working at all. I returned it the same hour I received.</t>
+          <t>Seems cheap but has a lot of assessors</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>broken</t>
+          <t>Looks good but isn’t working</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>04 June 2023</t>
+          <t>30 December 2023</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>the controller came in pieces.</t>
+          <t>It arrived in perfect condition and charges but refuses to connect to my ps4 like it says it can</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Does not work properly</t>
+          <t>Doesn’t connect</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31 May 2023</t>
+          <t>11 December 2023</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The X button only works when it wants to. Sometimes it works when you do not want it to work.😠🤷‍♂️</t>
+          <t>I tried connecting it but doesn’t work. Doesn’t matter how many times I hold the home button for it to connect.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['Quality', 'Easeofuse', 'Cleanliness']</t>
+          <t>['Connectivity']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1731,53 +1645,53 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>"renewed"</t>
+          <t>Weird Ps4 notifications</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>25 May 2023</t>
+          <t>07 December 2023</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>this was a "renewed" controller and came with the right analog stick half out the socket and tearing on the left stick</t>
+          <t>This controller is fine for the cost. Although, there was a "headphones not connected" notification that popped on the ps4 screen and is disconcerning because I did not plug in any headset devices.In 2023, this isn't normal or acceptable. Take this information as you see fit.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Appearance', 'Comfort', 'Value', 'Quality']</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Used controllers was given to me</t>
+          <t>No ext for docking chargers</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16 May 2023</t>
+          <t>01 December 2023</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sold me two used up controllers scratches , some type of food stain or toothpaste on the right trigger and on the R1 button I was hype at first thinking I was getting two new controllers end up being the complete opposite</t>
+          <t>It works but it doesn't have all the features a normal controller would. You can't charge on a docking station. No ext</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -1785,27 +1699,21 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Came broken</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14 May 2023</t>
+          <t>20 February 2024</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Came with every button mapped to the wrong input, stick drift, and some inputs/buttons not available entirely.</t>
+          <t>Within 48 hours of me purchasing then immediately using, the left joystick squeaks like crazy. It’s very annoying. Did not drop throw or hit it, just started happening. It works for now but it’s cheap and the joysticks without the extended rubber it gives you is very small and doesn’t work for thumbs. Good luck using it when you lose the rubber pads.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Buttons', 'Quality']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1813,56 +1721,43 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Was great up until right after the return window closed</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14 March 2023</t>
+          <t>01 February 2024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>The media could not be loaded.
-Direction analog stick isn’t lopsided or stuck, inverted controls aren’t on but my husband says in game it goes the opposite direction of where he’s steering the control. Never had a controller break like this before and certainly not in a matter of less than 3 months (opened and used starting Christmas) and ironically the return window was March 4th and it didn’t start acting up until yesterday.</t>
+          <t>Con-different charging port from Sony control-thumb sticks feel smaller/skinnier-weird smell-controller also feels abit smaller-sounds like a loose screw insidePro-works-thumb grips-charger</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Grip']</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Manchado</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>06 February 2023</t>
+          <t>24 January 2024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>No se ve ni luce como nuevo como dice la descripción y vino con una mancha en el panel táctil de desgaste</t>
+          <t>Nice controller for the price found buttons sticking after a while a little wd40 seems to work</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1870,27 +1765,21 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Refurbished and had to send back didn't work</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>08 January 2023</t>
+          <t>10 January 2024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>When we got it back it was delivered to the wrong apartment but it did work!</t>
+          <t>No audio. Other than that it's good.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -1900,20 +1789,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Dead on Arrival.</t>
+          <t>Amazon experience.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>06 December 2022</t>
+          <t>03 April 2024</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>We Ordered 2.  One was dead on arrival (it won't charge or pair) and the other has full throttle stick drift.  I don't even know what was "renewed" about these.  They looked used, and they don't function.These came out of the box and failed within moments.  Not even days...</t>
+          <t>The product was  a little substandard overall experience was good.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1922,31 +1811,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Es usado</t>
+          <t>Good, but be careful</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23 November 2022</t>
+          <t>29 March 2024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>El control es usado, estaba sucio y no sirvio</t>
+          <t>I had to buy a new one because my old one I had, I was being stupid and left it on the charger ever since I bought it so the charging port got bent and broke and wasn’t able to charge anymore. But they both work great (my old one still works just won’t charge anymore.) and I love the feeling of them. Will definitely buy more for this price !</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Buttons', 'Comfort', 'Quality', 'Connectivity', 'Appearance', 'Batterylife', 'Grip']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -1956,25 +1845,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Didn’t work</t>
+          <t>Works great</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12 November 2022</t>
+          <t>25 March 2024</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>When I got the controller everything with it was fine except for the fact that the X button didn’t work at all.…</t>
+          <t>I bought the controller for my husband as he needed a new one. He says thr controller is nice. It did have problems with the right stick, but it reacts well to the input othereise. Which all in all that's what I hoped for.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['Appearance', 'Easeofuse']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -1984,53 +1873,53 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Expensive for a product designed to fail</t>
+          <t>Got what I expected works good for gaming</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31 October 2022</t>
+          <t>02 March 2024</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bit of an alarmist headline but there are issues with this controller that Sony knew about and they produced it anyway, I also believe they are being sued for it. Anyway, its sad because this is a fantastic controller, great for larger hands, the layout is instinctual, the vibration and trigger feedback/resistance are amazing... the problem is the controller sticks wear out super quick. At my filthy casual level of 3-4 hours a week of play, my first lasted me about 3 months before the dreaded controller drift started in and got progressively worse, becoming unusable around month 4. Yes, it was still under warranty but you have to ship it to Sony for repairs at your own cost and if you only have one controller... well you get to just not play for the 2-3 weeks it takes to get it back. Just be on the lookout for stick drift and as soon as it happens get it in for repair.</t>
+          <t>It's good quality for the cheap price was very happy with our purchase</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Won't hold charge, needs plugged in all the time</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>26 September 2022</t>
+          <t>21 February 2024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Won't hold charge</t>
+          <t>Off brand stuff but works good enough.  Worth the cost.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['Quality', 'Cleanliness']</t>
+          <t>['Buttons', 'Quality']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2040,25 +1929,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>No battery</t>
+          <t>It's a good controller</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>29 March 2022</t>
+          <t>07 February 2024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>As it was a pre-owned item someone had removed the battery before I got a hold of it. I thought they'd at least test to see if things work...</t>
+          <t>Playing games</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Easeofuse', 'Appearance']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2068,109 +1957,97 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Not worth the money smh</t>
+          <t>Controller</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>13 April 2024</t>
+          <t>06 August 2023</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>It looks like a normal working controller on the outside but not even half a day using it there is so much stick drift on the left joystick some games are unplayable with it. For the price they ask you might as well get a brand new one instead.</t>
+          <t>Is as good as the original controller but half th price.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['Quality', 'Value', 'Easeofuse']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cosmetically renewed but actually arrived faulty</t>
+          <t>For the most part, it works</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>19 March 2024</t>
+          <t>01 August 2023</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Bought this controller to replace another with a drifting joystick but unfortunately this renewed one's right trigger sensor does not zero out--even after a firmware update and calibration. The left trigger's button signal is always in the "on" state too and can only be turned off by spamming the right bumper; definitely didn't expect this from a tested renewed product. The packaging is also sparse with only one very loose piece of paper wading so I'm now doubtful on the QA of the Amazon's renewed store. I'm giving it 2 starts for being cosmetically fine and having an included long cable but since this controller was only a couple dollars less than brand new controllers from Sony, I suggest safely buying from the official Sony amazon page instead.</t>
+          <t>I have issues with my hands, so the size and shape of this controller allows me to play longer. Overall I like it. There is a problem with the headset plug in</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['Cleanliness', 'Value', 'Quality', 'Appearance']</t>
+          <t>['Appearance', 'Comfort']</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Defective controller</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
-      </c>
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10 March 2024</t>
+          <t>08 April 2024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The right analog stick on the controller is very buggy and does not work most of the time.</t>
+          <t>It does what its supposed to do but its not as smooth as the original PS remote. Although for the price, its a good deal.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Kinda works.</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
-      </c>
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>28 December 2023</t>
+          <t>16 March 2024</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kinda works. But only on certain games. The controller won’t update.</t>
+          <t>Bought as replacement for my son,  arrived in time and well packaged! Looks cool and has the same weight/feel to it as a normal ps controller.  Charger included. Synced right up to system automatically. It vibrates when its supposed to. Hooks up to headset just fine. Only issue , which ive read in other reviews, is the R2 button is faulty. It worked fine at first but as time went on, seemed to slow or stop working. My son needs that button to drive the vehicle in the game and at times the vehicle would barelyyyy crawl . Other times it worked fine. 🤷🏼‍♀️</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Quality', 'Comfort', 'Appearance']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2178,55 +2055,43 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Sticky buttons and touch pad</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01 November 2023</t>
+          <t>15 March 2024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>When I purchased this I guess I didn't realize it was refurbished.. it feels refurbished and some of the buttons stick.. and the touchpad doesn't click in on the right side all the way.. so far it works other than some of the buttons sticking in for a second but it feels like it just going to get worse over time I gave it 2 stars because they at least gave me a long charging cable but it's still really poorly refurbished</t>
+          <t>Llegó en su caja, aunque muy justo dentro.Se conectó al Ps4 sin problema, los botones son un poquito duros, pero funcionan bien en general. La batería es duradera, aguanta 7hrs de juego aprox. Y tarda poco más de 2 hrs en recargarse. Es una buena opción si no se puede comprar un original.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Buttons does not work.</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
-      </c>
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31 August 2023</t>
+          <t>01 March 2024</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Everything was fine until you hook the controller up to your console or PC. The X and Square Buttons do not work and things like that should have been tested before shipping off to a customer.</t>
+          <t>Great remote but noisy the buttons squeek</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Appearance', 'Buttons', 'Quality', 'Connectivity']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2234,55 +2099,43 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Left toggle (L3) won’t stay neutral</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>08 July 2023</t>
+          <t>18 February 2024</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Controller automatically Leigh’s to pull to the left.  In Diablo 4 my character will automatically start to walk left, in call of duty it screws up my sniper aim because it does not stay neutral.  Bad refurbished controller.</t>
+          <t>It's works good</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Jitter problem</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
-      </c>
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>02 July 2023</t>
+          <t>22 January 2024</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>I've had the controller for less than a week and it already has a jitter problem. Everything else works perfectly fine.</t>
+          <t>So far so good. We only had the remote since yesterday and shows no issues.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Value', 'Quality']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2290,125 +2143,101 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Experiencing stick drift just under 1yr after purchase</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2</v>
-      </c>
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>09 June 2023</t>
+          <t>31 December 2023</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>I bought this PS5 controller in June, 2022.  I am writing this review on June 9th, 2023.  Last night the controller began stick-drifting and it's really annoying to the point of not being able to use it.  The controller has been well-kept and worked fine until last night.  I just wanted to come back here and make mention of it.</t>
+          <t>As advertised</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['Easeofuse', 'Cleanliness', 'Value', 'Appearance']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Do not recommend</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2</v>
-      </c>
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>30 December 2022</t>
+          <t>24 November 2023</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2 stars because looks like new but R2 button stacked in a week</t>
+          <t>These are my first impressions after using this controller for an hour:It is about 85% the same as the original dual shock4, The design is basically the same but may feel slightly different in hand. It works perfectly without any delays and the material quality is as good as the genuine product. Headphone sound is noisy and intrrupted and this is actually the main negative part, so I've returned it and bought an original dual shock4.If you don't care about the money go for a 75$ dual shock 4, but if you do care about the extra 35$ don't hesitate to buy this one!</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>['Value', 'Quality', 'Appearance', 'Comfort']</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>04 November 2023</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>I like it. Looks great, buttons are responsive and fits well in my hand. I would buy it again (but hopefully won't have to).</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>['Quality']</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Appears to be used. Will follow up when it is opened at Christmas</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>04 December 2022</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>The box appears to have been opened. I will follow up after it is opened for Christmas</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>['Easeofuse', 'Appearance']</t>
-        </is>
-      </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Dirty</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2</v>
-      </c>
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14 July 2022</t>
+          <t>17 September 2023</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>First of all Controller is working well, but it arrived with major signs of use. It was dirty and took me time for cleaning it.I know that I bought renewed one, and it was ok from me, that box was damaged too, but for dirty item I can not write good review</t>
+          <t>All Good</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>It was extremely dirty</t>
+          <t>Perfect</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2417,40 +2246,40 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>I’ve seen a lot of bad reviews, others good, so I gave it the benefit of the doubt. It came extremely dirty. I had to douse it in Lysol and scrub it down from the grime build up. I have yet to find out if the controller has any analog drift or would even care to charge. Don’t buy this unless you want to gamble with your money and chances of getting an A.O.K controller. Just buy a 100 dollar brand new</t>
+          <t>This is a great controller! We bought an actual Sony one, but it broke within a week. My 8 year old has been using this one for about a month, and it is great! It holds a charge and connected right away.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality', 'Value']</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Almost "New"</t>
+          <t>Works good</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12 March 2024</t>
+          <t>11 April 2024</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>The PS5 controller, a solid option for a high price. This listing seems like you would receive a new controller in the standard box, however in reality it is a "new" refurbished controller. The face buttons felt used as there isn't much of a click when you press them. Aside from that, few to no problems, so it doesn't fail on that part. Just an unfortunate case of misleading labels.Edit: The controller is already broken after normal usage. Pressed in L1 button. I would suggest avoiding this offer!</t>
+          <t>Will buy another one</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['Value', 'Appearance', 'Cleanliness']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2460,25 +2289,25 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Bang 4 Buck</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>27 November 2023</t>
+          <t>10 April 2024</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>It nice but it usey boyfriend loves it</t>
+          <t>This is hands down the best more affordable controller for PS4 I've ever purchased or used.  I could feel the difference as soon as I took it out the box. Analogs are nice. Hand grip and thumb grips excellent add on. Haven't had it long but amazing for price if it lasts at all ..</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Grip']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2488,53 +2317,53 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>NICE!!!!</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>14 October 2023</t>
+          <t>09 April 2024</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>It works but wouldn’t advise getting one on amazon it has so many button glitches and you have to blue tooth connect them to yo ps5.</t>
+          <t>This controller is no different from the $60 controllers. Feels heavy duty and the control response time is excellent. Highly recommend this over the more expensive controllers.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>As advertised</t>
+          <t>Replacement for ps4 controller</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17 May 2023</t>
+          <t>06 April 2024</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Came on time with no issues</t>
+          <t>Thumb pads help it fit my son's hand better  .. love the price too</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Appearance', 'Value', 'Comfort']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -2544,25 +2373,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Stick drift was immediately a problem.</t>
+          <t>Might be better than Sony's</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>26 November 2022</t>
+          <t>05 April 2024</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>I bought the controller because I needed an older gen, so I could attach back paddles(bdm-010 or bdm-020). I assumed a renewed version would likely be an older controller. I was extremely happy when it came and was a BDM-020.. I immediately attached the paddles and for about an hour everything worked great - after an hour I got heavy stick drift from the left stick...I'll still try to use it, and I'm very happy with the shipping, but for the price, I thought this would last me a bit longer without problems.</t>
+          <t>I've only had this controller for a day. Let me say that I grabbed this controller because the New Sony PS4 controller was going to take a week to get to me. I couldn't wait that long. Was suppose to be over night. Anyway I picked this one. Read reviews they seemed good.THE LOOKS: looks great, nice design. I got the lighting design.  It came with two thumb grippers with lighting bolt on them.THE FEEL: Feels good in the hands, (pause) palm grippers are nice addition. The bottons are great quality! Everyone! There's no cheap clickety click noise. Smooth and quiet! The R1, R2, L1, L2 bottons, to me are even better than Sony's. Especially driving. If I wanted to cruise, I could cruise. Mash down and your full speed. I played GTA 5 with this controller and it did not disappoint.THE BATTERY: Battery life is amazing, I mean nothing else to say about that!It's built with quality and it's lighter than Sony's. But feels good and of quality. The vibration is also great! It may not be as strong as Sony's, but it's not a big enough diffence to say it's weak by any means! Performs well!I say it's better than Sony's because of the design, quality, and price. I experienced no  lag at all. Forgot to mention my shooting even got better!  I'm not saying yours will, maybe it was the settings I adjusted or maybe this controller does improve your shooting. Turbo botton is easy to set.Overall I believe we are so use to Sony's controller that we judge third party controllers to the T! I must say that as of right now I'd buy this controller again and to me it looks, feels, and performs just as WELL! LET'S NOT FORGET THE PRICE! I HIGHLY RECOMMEND THIS CONTROLLER THIS PRODUCT, THIS BRAND! IT'S PRETTYY, PRETTYY PRREEEETTYY GOOD! (LARRY DAVID'S VOICE) 😂</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['Cleanliness', 'Appearance']</t>
+          <t>['Appearance', 'Quality', 'Grip', 'Buttons', 'Batterylife', 'Value', 'Connectivity']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -2572,25 +2401,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Son</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01 October 2023</t>
+          <t>01 April 2024</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Omg My Son picked this out and he is loving it</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2600,48 +2429,48 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>All right</t>
+          <t>It works great</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>13 August 2023</t>
+          <t>31 March 2024</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The controller was all dirty had food crumbs on it works well clean be for use</t>
+          <t>I like it</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['Cleanliness']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bad wiring</t>
+          <t>Looks as good as everyone else says seems to work great</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>09 July 2023</t>
+          <t>29 March 2024</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>One thing I disliked is that the analog stick was doing the same thing as the left trigger</t>
+          <t>We think we love these.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2650,31 +2479,31 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Works fine</t>
+          <t>Compatible with PS4</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>28 April 2023</t>
+          <t>29 March 2024</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>This was a little dirty when I received it. But after cleaning it, it was fine. Works as expected.</t>
+          <t>Product was exactly as described.  Works great.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -2684,25 +2513,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Like new!</t>
+          <t>Great price controller</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10 December 2022</t>
+          <t>28 March 2024</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>I was pleased to buy a refurbished control that works like new. Only downside was that it didn’t come in it’s original box.</t>
+          <t>My son liked it</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2712,53 +2541,53 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Still broken</t>
+          <t>Great Controller for $20</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>23 September 2022</t>
+          <t>27 March 2024</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Controller is still broken even though it was “refurbished” the charging wire would feel loose and fall out sometimes. buttons kinda stick and it does extremely fast. I only haven’t returned it because the nearest return center in my area is now so far away I literally couldn’t get there by train easily</t>
+          <t>I’m a competitive Fortnite player, and this controller is insane for $20 all the buttons are great except for the touchpad, the click function well, sucks. The joysticks are great and smooth and the triggers flawless. I had issues with the charging port on all my Sony ps4 controllers so the usb-c is a serious upgrade.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['Value', 'Cleanliness', 'Appearance', 'Easeofuse']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>I like it so far.</t>
+          <t>Nice feeling</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>04 June 2022</t>
+          <t>27 March 2024</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>I would recommend this controller.</t>
+          <t>Was a gift for my little brother. He loved it. It felt very soft and had a nice grip to it</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Grip']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -2768,7 +2597,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>PS4 Controller</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2776,17 +2605,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>02 April 2024</t>
+          <t>26 March 2024</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>So far so good. Connecting now to use</t>
+          <t>Great product. It was exactly what I ordered</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -2796,7 +2625,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>It’s worth it!!! Everything is still enacted…</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2804,17 +2633,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>31 March 2024</t>
+          <t>24 March 2024</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Came with a 10-ft charging cord. quick shipping</t>
+          <t>It came in one piece and stayed that way when I programmed it and all of the buttons work actually and came with 2 thumb cushions.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -2824,7 +2653,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Works!</t>
+          <t>Better than SONY!</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2832,17 +2661,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>30 March 2024</t>
+          <t>24 March 2024</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>It does what it supposed to do. It is also very durable. I like the fact that it came with a charger cord.</t>
+          <t>I bought this and the white one and they work better than the Sony ones we have! They are smooth and they hold a charge well! Come with chargers as well! Great product!!</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['Value', 'Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -2852,7 +2681,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>As described just as good as new if you get the right one</t>
+          <t>Great controller</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2860,17 +2689,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>27 March 2024</t>
+          <t>23 March 2024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>As described great deal just as good as new, I tore it down and checked and the battery was new and it looked like the inside had been cleaned</t>
+          <t>If you have trouble connecting. Sign into your profile with main controller. Then turn the new one on. Works like a charm for us.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Connectivity']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -2880,7 +2709,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Perfect</t>
+          <t>I like it better than my original ps4 controller</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2893,12 +2722,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>I absolutely love it!!!!</t>
+          <t>I wasn’t expecting such quality for the price. I like it better than my original ps4 controller! It feels great in your hands. The buttons all work flawlessly. It connected and worked perfectly for me with no hassle. I even tested the turbo setting and it worked as described. I’d recommend it anyday</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -2908,7 +2737,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ps5</t>
+          <t>Great aftermarket</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2916,12 +2745,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>05 March 2024</t>
+          <t>23 March 2024</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Bought this set for my ps5 and works amazing</t>
+          <t>I'll be honest, I was skeptical, for the price, this one equal to the real, they're are a few things they've changed, matters of options on if good or bad, great value for sure, and that's before I figured out the turbo function lol</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2936,7 +2765,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Came exactly how it was described</t>
+          <t>Looks feels and great</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2944,17 +2773,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>05 March 2024</t>
+          <t>23 March 2024</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>If I will be needed another controller I will be buying from them again. Works well and it is in almost perfect condition cosmetic wise</t>
+          <t>Bought for our grandson and he is simply ecstatic at the way this controller looks, feels, and reacts when he uses it. He has 2 other wireless controllers but this one buy far is his favorite.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Appearance', 'Connectivity', 'Value', 'Buttons', 'Quality']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -2964,7 +2793,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Awesome!</t>
+          <t>Works Great!</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2972,17 +2801,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>05 March 2024</t>
+          <t>21 March 2024</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>This controller paired super easily and was already partially charged. Updated perfectly and now I'm ready to play. Thanks for having an awesome product!</t>
+          <t>We've been using this controller for a couple of weeks now, and have had no issues. A great buy!</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Appearance']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -2992,7 +2821,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>works well for price</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3000,17 +2829,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>05 March 2024</t>
+          <t>21 March 2024</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Came on time works great my son loves it 👍🏽</t>
+          <t>bought this as backup controller have had no issues and with great price i cant complain</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -3020,7 +2849,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>Works just like the original!</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3028,17 +2857,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>07 February 2024</t>
+          <t>18 March 2024</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>My son is happy with it</t>
+          <t>Bought this to replace our original controller and it works amazing! Also comes with a USB C charger which is great considering we have a lot of those around the house. Highly recommend</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['Cleanliness', 'Value']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -3048,7 +2877,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Works great</t>
+          <t>Surprisingly quality for the price</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3056,12 +2885,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>05 February 2024</t>
+          <t>15 March 2024</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>Honestly I was expecting it not to work as well as it should, the buttons don’t stick, nor janky,  I’m actually quite surprised with the quality of it. It also takes a C-type charger, which is more convenient for me personally. So all in all it’s actually really good for how cheap it is.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3076,7 +2905,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ps5 remote</t>
+          <t>It works!</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3084,27 +2913,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>02 February 2024</t>
+          <t>15 March 2024</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Remote exactly what was advertized</t>
+          <t>The controller that came with the game system was chewed up by a foster dog. We tried to replace it with one bought from Vintage Stock but had to return it because of a faulty relay (they were great about it). This order worked out much better... arrived quickly, well packaged and it works!</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>It’s good</t>
+          <t>Lo esperado</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3112,17 +2941,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>05 January 2024</t>
+          <t>13 March 2024</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>It’s good</t>
+          <t>Buen producto</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -3132,7 +2961,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Works perfectly fine</t>
+          <t>Fit perfect</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3140,17 +2969,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15 December 2023</t>
+          <t>12 March 2024</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Product works fine.  Played right out of the box and takes charge rapidly.</t>
+          <t>These are great for multiple controllers to differentiate between kids! They really liked the way they look and do not interfere with play at all.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['Cleanliness', 'Value', 'Easeofuse']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -3160,7 +2989,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>That’s nice</t>
+          <t>Kids love it</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3168,17 +2997,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>13 December 2023</t>
+          <t>12 March 2024</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>I gift to my friend for his birthday</t>
+          <t>Got this controller for my son and now the kids are fighting who gets to use it all the time</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Comfort', 'Appearance']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3188,7 +3017,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Impresionada si o si ... excelente 👌</t>
+          <t>Great buy!</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3196,17 +3025,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>29 November 2023</t>
+          <t>11 March 2024</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Un regalo para mi hijo. Buena calidad. 👍 un servicio diría yo con un buen sentido de urgencia  me encanto como trabajan .</t>
+          <t>Fast shipping, comfortable to hold, and work great! Definitely worth the money. &amp; Will buy again.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -3216,7 +3045,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Good Controller</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3224,17 +3053,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>20 November 2023</t>
+          <t>10 March 2024</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>This controller has been lasting through my three kids if you know what I mean. I have bought several of this brand and they work well. If you have any issues they have good Customer service as well.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -3244,7 +3073,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Works good</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3252,17 +3081,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16 September 2023</t>
+          <t>07 March 2024</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>stick works good and is new :)</t>
+          <t>Bought this for my nephew. He simply loves it.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -3272,7 +3101,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>My Son loves ❤️ it!!!</t>
+          <t>Ps4</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3280,12 +3109,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15 September 2023</t>
+          <t>07 March 2024</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Title says it all!!!</t>
+          <t>Es de buen material, ya tengo meses usándolo y es excelente</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3300,7 +3129,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Controller</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3308,17 +3137,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>30 August 2023</t>
+          <t>05 March 2024</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>So far so good. At least it's no drifting!!</t>
+          <t>Liked it</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Buttons']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -3328,7 +3157,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Came three days earlier than expected</t>
+          <t>Don’t hesitate to buy another brand.</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3336,17 +3165,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>26 August 2023</t>
+          <t>29 February 2024</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>I bought it to use with the PS5 since it only comes with one controller</t>
+          <t>This controller is the same, if not better than the original.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -3356,7 +3185,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Good controller</t>
+          <t>Ps controllers</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3364,17 +3193,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>28 July 2023</t>
+          <t>28 February 2024</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>I got a used product. It arrived unwrapped and a bit dirty. There were some scratches, and some gunk on the handle and in the crevices, but the performance was good. I suppose someone played with it a lot before returning it. All is to be expected.</t>
+          <t>Works great connects everything love it</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['Quality', 'Value', 'Appearance']</t>
+          <t>['Connectivity', 'Quality']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -3384,7 +3213,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>It is as described, works great, arrived quickly.</t>
+          <t>Son Loves it!</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3392,12 +3221,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>27 July 2023</t>
+          <t>28 February 2024</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>I am happy with my purchase of this extra controller for my PS5, worked instantly. Definitely worth the discounted price. Very pleased.</t>
+          <t>My son loves it, the colors are an added coolness!</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3412,7 +3241,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Like brand new</t>
+          <t>Great</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3420,17 +3249,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>11 July 2023</t>
+          <t>28 February 2024</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Just got my controller a week ago and i had been using it since.I can’t believe how affordable and how good the quality is. Everything works perfectly.Can’t even think of a negative review about this item.</t>
+          <t>Great and not to expensive 😁</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -3440,7 +3269,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Works perfectly</t>
+          <t>Workers grate</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3448,17 +3277,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>22 June 2023</t>
+          <t>26 February 2024</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Great controller</t>
+          <t>Last a long time</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['Quality']</t>
+          <t>['Comfort']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -3468,7 +3297,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>It’s amazingly resistant</t>
+          <t>Yes!!</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3476,17 +3305,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>08 June 2023</t>
+          <t>26 February 2024</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>The item has been of good use, so far I’ve used it for almost a month and it’s very resistant to impact due to it being dropped twice and it’s still strong.</t>
+          <t>No disappointments</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Buttons', 'Quality', 'Value', 'Connectivity']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -3496,7 +3325,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>It works with no drift</t>
+          <t>Best controller</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3504,17 +3333,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>01 May 2023</t>
+          <t>21 February 2024</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>It does what it needs to do without fail</t>
+          <t>Wow this controller works Great came on time and perfect condition. Whoever 1 starred this item, Is really crazy they don't know what they are talking about. I RECOMMEND THIS ITEM. Trust me.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -3524,7 +3353,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>It’s super</t>
+          <t>Well Made</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3532,17 +3361,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>22 March 2023</t>
+          <t>09 February 2024</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>My husband prefers this controller over the white one… only cauz it’s extraordinary color.  Works excellent, comfortable in our hands, buttons are not sloppy nor difficult to press. A must have… in this color. 😊</t>
+          <t>Well made and works great</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -3552,7 +3381,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Works great</t>
+          <t>Connected easy</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3560,17 +3389,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01 March 2023</t>
+          <t>07 February 2024</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Had to get this controller after I broke my boyfriends and it’s a great controller!! I usually have trouble when ordering controllers off this site but not with this one!! 10/10</t>
+          <t>Little bulker than standard ps4 controller</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['Easeofuse', 'Value', 'Cleanliness', 'Appearance']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -3580,7 +3409,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Great quality</t>
+          <t>My grand boys  are so excited and happy</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3588,17 +3417,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>14 January 2023</t>
+          <t>07 February 2024</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Purchased for my husband as a Christmas gift and he loves it.</t>
+          <t>Like 👍 and love to order for you all</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Value', 'Easeofuse', 'Appearance']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -3608,7 +3437,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Thank you</t>
+          <t>Better than a Playstation controller</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3616,12 +3445,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>09 January 2023</t>
+          <t>05 February 2024</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Just what I needed</t>
+          <t>I've had this for about 3 now and so far it has been better than my original ps4 controllers. It's very comfortable, super easy to connect and the charge last a very long time. In fact, I average anywhere from 4-8  a day play time and I have not had to recharge it yet as it still has pretty much a full charge.  Only downside, if you want to call it that is it not the same type of charger. It does come with a type c charging cable though. May buy a few more and get rid of my older ps controllers all together.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3636,7 +3465,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Great product!</t>
+          <t>Pleasantly surprised</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3644,17 +3473,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>29 November 2022</t>
+          <t>05 February 2024</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>I purchased this a few months ago, so far I haven’t had any issues with it! I’m very pleased.</t>
+          <t>Worth the price. Handles well. Did not realize it takes a USB-C charging cable. Really good battery life. My only complaint would be with the design placement of the light that indicates it is on. For someone who likes to play games in a dark room this light is rather bright and distracting. Solved by a piece of electrical tape, lol.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['Value', 'Easeofuse', 'Appearance']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -3664,7 +3493,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Satisfied</t>
+          <t>Affordable decent controller.</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3672,17 +3501,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>11 September 2022</t>
+          <t>04 February 2024</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Package arrived before time which was cool. Works just like new and looks it too. I'm a satisfied customer</t>
+          <t>My kiddo loves the lightning bolts on the remote. It is a lightweight controller. It charges nicely and holds a good charge. It is a good controller for the price.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['Appearance']</t>
+          <t>['Value', 'Comfort', 'Appearance', 'Quality', 'Batterylife']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -3692,7 +3521,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Renewed was perfectly new!</t>
+          <t>Feels Amazing and the disign is beautiful</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3700,17 +3529,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>04 September 2022</t>
+          <t>03 February 2024</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>I was lucky enough to finally find a PS5.  I needed a second controller, so where do we go???  Amazon, of course.  I saw this and wanted my Orlando City Purple.  It was cheaper than the factory new but I noticed it carried a guarantee of quality.  I tried it and it works perfectly.  I could never have told the difference between this one and the one I got with the console except for the color.  Recommended - save the money and go for the Renewed model!</t>
+          <t>I like the color and grip is very nive</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['Cleanliness', 'Quality', 'Value']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -3720,7 +3549,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Great controller</t>
+          <t>Very nice and sturdy</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3728,17 +3557,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>12 April 2022</t>
+          <t>03 February 2024</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>My son loves this and loves the color</t>
+          <t>My son loves the controller. He such the grip is great loves the color it’s Bluetooth</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Grip']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -3748,7 +3577,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Love the controller hate how it was delivered…</t>
+          <t>Game on!</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3756,12 +3585,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>29 December 2021</t>
+          <t>02 February 2024</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>The product was great… The fact that it was put in the mailbox and not to the door is what had me concerned with the amount of packages being stolen…</t>
+          <t>I purchased this for my Son, he loves it!</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3776,7 +3605,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Happy!</t>
+          <t>Works great</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3784,17 +3613,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>11 December 2021</t>
+          <t>31 January 2024</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Bought the black one. A red one was sent but seller took care of the exchange. Love my new black remote. Also have it in white.</t>
+          <t>No issues connecting and long lasting battery.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['Value']</t>
+          <t>['Grip']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -3804,7 +3633,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A+++</t>
+          <t>Fantastic!</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3812,17 +3641,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>08 December 2021</t>
+          <t>31 January 2024</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A+++</t>
+          <t>It’s perfect! It connects and works even easier than a regular on brand ps4 controller! Durability is outstanding! The grips make it easier to keep hold of it with sweaty hands. When getting ps4 controllers, don’t get the $60 nasty ones. Get these!</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -3832,7 +3661,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Looks great, feels great.</t>
+          <t>Loved this item!</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3840,17 +3669,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>07 November 2021</t>
+          <t>29 January 2024</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Exactly what you’d expect for a black dual sense. Looks very nice, and a has a PS feel with the black controller and the blue/white LED lights.</t>
+          <t>Got this for my brother and he loved it! This is awesome for its price. My brother loved the design and uses this controller all the time. 10/10!</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Value']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -3860,7 +3689,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Very satisfied</t>
+          <t>Excelente</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3868,17 +3697,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>28 September 2021</t>
+          <t>25 January 2024</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Got what we ordered. Nothing wrong with it. Just a few scratches for being a used controller. Satisfied</t>
+          <t>Muy buen producto.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['Easeofuse']</t>
+          <t>['Quality']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -3888,7 +3717,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Red is Cool!!</t>
+          <t>Game controllers</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3896,20 +3725,1122 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>28 September 2021</t>
+          <t>24 January 2024</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Just came in today and I really like it. Was surprised it was fully charged. Thank you!! Really needed this!!</t>
+          <t>Now he has new controllers, a new charging base. He's tickled pink</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
+          <t>['Appearance']</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Works seamlessly with PS4 compatible with my headsets too</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>17 January 2024</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Much cheaper then Sony controllers</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>['Value']</t>
         </is>
       </c>
-      <c r="F124" t="n">
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>A Controller Made For Gamers and Trophy Hunters!</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>07 January 2024</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>The Controller is very comfortable in your hands with the non slip grip. Very useful for Timing and Accuracy in FPS Games. It’s half the price of the Original Sony Controller and just overall made better.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>['Comfort']</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Better Than The Sony Controller</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>04 January 2024</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>This freaking controller rocks! It is very comfortable in my hands with non-slip grip. It looks very cool and overall worth the money! It arrived when it said it would and works perfectly. I think it blows my original PS4 controller!</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>['Comfort']</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Was exactly what I ordered.</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>31 December 2023</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Playing games on PS4</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Amazing</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>15 December 2023</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Works amazing! He loves his gift and loves the nonslip</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>works great. great features and coo;l design choices</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>5</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>25 November 2023</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>works great. would purchase again for numerous positive reasons</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>['Value', 'Quality']</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>On time delivery good quality</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>5</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>24 November 2023</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Ps4</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Does the job great</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>09 November 2023</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>For 1/3 the price this controller is great! Does everything the original does. Feels sturdy so we shall see.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Relación precio calidad</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>24 August 2023</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Especialmente lo que se esperaba del producto.El touch pad y la conexión Bluetooth funcionan de acuerdo a lo esperado.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>['Connectivity']</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Reliable Replacement and it's a C-type charge port! Upgrade!</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>19 August 2023</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Equipped with a 3.5mm audio jack, this controller is built for gaming! The AceGamer V2 comes complete with bonus thumb caps and the Lightning design adds a flash of style to your gaming setup; plus, with its USB Type-C connection, you'll experience lightning-fast connectivity for uninterrupted gameplay and quick recharges! This is almost a perfect substitute for a factory PS4 controller due to it's feel and performance! It's almost better than a factory ps4 controller, as it is noticeably lighter, too!10/10 This controller is a nice replacement for the ever-disappearing and now hard to find PS4 controllers. It also works great for PC gaming! Total plug and play!</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Controller</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>14 August 2023</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Works perfect</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Functional</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>5</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>07 August 2023</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Bought it as a 2nd controller for my fiancée, she loves it and it works perfectly. Easy 5 star</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>A worthwhile purchase</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>05 August 2023</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>My new controller from 3rd party company ace gamer arrived. It works great it looks fantastic. Only getting controllers from them from now on. much cheaper killer designs and they charge off the same cords for my phone and switch. Would HIGHLY recommend!!!!!! 10/10</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>['Comfort']</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Works Great!</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>5</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>18 July 2023</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>After each of my Sony controllers have issues I wanted another controller for less money. These work. Less lighting features but very functional.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>['Comfort', 'Connectivity', 'Value', 'Quality', 'Grip', 'Appearance']</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Works great</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>5</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>22 June 2023</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Great controller for the price.  Works great with our PS4 and my kids love the design on it.  We charged it connected directly to the PS by the cable and it connected instantly.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>15 April 2024</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Marche très bien après plusieurs mois! Exactly comme sur la photo besoin d'un fil USB-C pour rechercher.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>04 April 2024</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Good controller works well</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>12 March 2024</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Works as advertised.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>07 March 2024</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Great product, connected fast and works great.My son is very happy 😊</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>['Value', 'Comfort', 'Connectivity']</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>05 March 2024</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Good choice</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>29 February 2024</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Great option for ps4 controller! Very affordable and works great. It easily connected. Son loves the design.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>['Quality', 'Value', 'Comfort']</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>29 February 2024</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Way less expensive.  The battery life is much better than original. Ordering a few more.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>26 February 2024</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Tuout était beau.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>26 February 2024</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Super easy to hook up, works just as well as the controller that came with my ps4 but looks way cooler</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>18 February 2024</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Works perfectly well for a lesser price compared to the original controller.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>18 February 2024</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>My son really liked it and said it worked well. Would recommend.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>14 February 2024</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Was impressed with how quick I got it and how much more durable it is compared to other controllers</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>['Comfort', 'Value', 'Grip', 'Appearance', 'Quality']</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>13 February 2024</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>He liked it</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>06 February 2024</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Playing  games and other uses</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>['Buttons']</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>31 January 2024</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Great controller works well battery last a while but the grips slip off the joy sticks some times but it works the same as a PS4 branded one just hella cheaper</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>['Grip', 'Batterylife', 'Quality']</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>29 January 2024</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Worked great</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>26 January 2024</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Works well no issues</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>['Quality', 'Comfort']</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>26 January 2024</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Worked perfectly and is comfortable.  It paired easily with my iPad pro.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>['Comfort']</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>01 January 2024</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>So far no issues seems to be responding quickly and no hindrance to game play.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>['Comfort']</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>29 December 2023</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Controller was built well. Very nice finish. Works great</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>['Appearance', 'Grip', 'Comfort', 'Quality']</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>12 December 2023</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>My son liked the colour. He had it for 3 months and it's working well. The price was tempting. I recommend this for play station 4.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>03 December 2023</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Très bonne manette ces connecter automatique sur ma ps4 et vient avec le fil de charge en plus !!!!</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>02 December 2023</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Calidad precio</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>25 November 2023</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Dual shock controller so far works very well with my PS4. Battery life seems good. USB-C charging is convenient</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>08 November 2023</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>The controller has a nice feel to it, it handles the  most intense game play.</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>['Appearance']</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>08 November 2023</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>This controller works better then my dual shock ps4 one</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>['Appearance', 'Connectivity']</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>24 October 2023</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Great battery, comfortable to use and works perfectly with the ps4</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>22 October 2023</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>This is a very good controller for my PS4. It’s reactive, ergonomic and hold a charge longer than my original controller. Would buy again!</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>12 October 2023</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>its good</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>['Value']</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>30 September 2023</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>It works very well and fits well in the hand.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>['Quality']</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>12 September 2023</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Works awesome</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>['Value', 'Connectivity', 'Appearance', 'Batterylife', 'Buttons', 'Comfort', 'Quality']</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
         <v>1</v>
       </c>
     </row>
